--- a/example data/group/25 mm - Grand Average Group Stepcycles.xlsx
+++ b/example data/group/25 mm - Grand Average Group Stepcycles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK26"/>
+  <dimension ref="A1:AZ26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,170 +451,245 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Nose x</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Nose y</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ear base x</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Ear base y</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Front paw tao x</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Front paw tao y</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wrist x</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Wrist y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Elbow x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Elbow y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Lower Shoulder x</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Lower Shoulder y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Upper Shoulder x</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Upper Shoulder y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Iliac Crest x</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Iliac Crest y</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Hip x</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Hip y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Knee x</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Knee y</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Ankle x</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Ankle y</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Hind paw tao x</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Hind paw tao y</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Tail base x</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Tail base y</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Tail center x</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Tail center y</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Tail tip x</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Tail tip y</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Ankle Angle</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Knee Angle</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Hip Angle</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Hind paw tao Velocity</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Hind paw tao Acceleration</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Ankle Velocity</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Ankle Acceleration</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Knee Velocity</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Knee Acceleration</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Hip Velocity</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Hip Acceleration</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Iliac Crest Velocity</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Iliac Crest Acceleration</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Ankle Angle Velocity</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Ankle Angle Acceleration</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Knee Angle Velocity</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Knee Angle Acceleration</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Hip Angle Velocity</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Hip Angle Acceleration</t>
         </is>
@@ -631,105 +706,150 @@
         <v>3.4</v>
       </c>
       <c r="D2" t="n">
+        <v>212.3285130406103</v>
+      </c>
+      <c r="E2" t="n">
         <v>7.527700518885405</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>198.1204404898569</v>
+      </c>
+      <c r="G2" t="n">
         <v>17.59626266804147</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>185.9822541433023</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.938180206515267</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>181.7737980430008</v>
+      </c>
+      <c r="K2" t="n">
         <v>5.323522040184507</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>178.5139270200797</v>
+      </c>
+      <c r="M2" t="n">
         <v>14.34609446965211</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>186.3963863021093</v>
+      </c>
+      <c r="O2" t="n">
         <v>18.28673964696573</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
+        <v>182.9023770406736</v>
+      </c>
+      <c r="Q2" t="n">
         <v>25.92353198545199</v>
       </c>
-      <c r="K2" t="n">
+      <c r="R2" t="n">
+        <v>140.1673269610033</v>
+      </c>
+      <c r="S2" t="n">
         <v>25.93141664004495</v>
       </c>
-      <c r="L2" t="n">
+      <c r="T2" t="n">
+        <v>137.10686372527</v>
+      </c>
+      <c r="U2" t="n">
         <v>19.1405543875187</v>
       </c>
-      <c r="M2" t="n">
+      <c r="V2" t="n">
+        <v>142.826859629746</v>
+      </c>
+      <c r="W2" t="n">
         <v>13.42537805543724</v>
       </c>
-      <c r="N2" t="n">
+      <c r="X2" t="n">
+        <v>130.866296815534</v>
+      </c>
+      <c r="Y2" t="n">
         <v>14.19874042483932</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Z2" t="n">
+        <v>130.5086430759295</v>
+      </c>
+      <c r="AA2" t="n">
         <v>4.425557860245939</v>
       </c>
-      <c r="P2" t="n">
+      <c r="AB2" t="n">
+        <v>123.8296302835992</v>
+      </c>
+      <c r="AC2" t="n">
         <v>16.74137318387945</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="AD2" t="n">
+        <v>90.63119930578463</v>
+      </c>
+      <c r="AE2" t="n">
         <v>22.05535536962198</v>
       </c>
-      <c r="R2" t="n">
+      <c r="AF2" t="n">
+        <v>84.53466382432492</v>
+      </c>
+      <c r="AG2" t="n">
         <v>21.86666995921033</v>
       </c>
-      <c r="S2" t="n">
+      <c r="AH2" t="n">
         <v>85.62355692393984</v>
       </c>
-      <c r="T2" t="n">
+      <c r="AI2" t="n">
         <v>43.08726773101937</v>
       </c>
-      <c r="U2" t="n">
+      <c r="AJ2" t="n">
         <v>110.2510724895492</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AK2" t="n">
         <v>4.781835468102853</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AL2" t="n">
         <v>0.8089258992080163</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AM2" t="n">
         <v>2.867706481446609</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AN2" t="n">
         <v>-0.3982211427485676</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AO2" t="n">
         <v>2.528996907227426</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AP2" t="n">
         <v>-0.02577457022159618</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AQ2" t="n">
         <v>2.011852568768443</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AR2" t="n">
         <v>-0.05597432454427341</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AS2" t="n">
         <v>1.742659122385879</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AT2" t="n">
         <v>0.3522524935133876</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AU2" t="n">
         <v>-8.182519811965728</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AV2" t="n">
         <v>-3.951931431784019</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AW2" t="n">
         <v>-2.847016374406286</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AX2" t="n">
         <v>-0.04275586490014227</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AY2" t="n">
         <v>-3.763185565967014</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AZ2" t="n">
         <v>-2.52323254804127</v>
       </c>
     </row>
@@ -744,105 +864,150 @@
         <v>3.4</v>
       </c>
       <c r="D3" t="n">
+        <v>215.0358026839317</v>
+      </c>
+      <c r="E3" t="n">
         <v>7.560195381759752</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>200.9166595614548</v>
+      </c>
+      <c r="G3" t="n">
         <v>17.65915431029407</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>186.9931054960751</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.697732533123474</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
+        <v>183.0298757891283</v>
+      </c>
+      <c r="K3" t="n">
         <v>5.199996190713652</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
+        <v>181.0056501753787</v>
+      </c>
+      <c r="M3" t="n">
         <v>14.4861871976379</v>
       </c>
-      <c r="I3" t="n">
+      <c r="N3" t="n">
+        <v>189.1111605556299</v>
+      </c>
+      <c r="O3" t="n">
         <v>18.26900563341506</v>
       </c>
-      <c r="J3" t="n">
+      <c r="P3" t="n">
+        <v>185.5347256964826</v>
+      </c>
+      <c r="Q3" t="n">
         <v>25.93222746612332</v>
       </c>
-      <c r="K3" t="n">
+      <c r="R3" t="n">
+        <v>143.9283847808838</v>
+      </c>
+      <c r="S3" t="n">
         <v>26.20482979091346</v>
       </c>
-      <c r="L3" t="n">
+      <c r="T3" t="n">
+        <v>140.7068835589903</v>
+      </c>
+      <c r="U3" t="n">
         <v>19.63991936216963</v>
       </c>
-      <c r="M3" t="n">
+      <c r="V3" t="n">
+        <v>147.4817595245145</v>
+      </c>
+      <c r="W3" t="n">
         <v>14.71592071208548</v>
       </c>
-      <c r="N3" t="n">
+      <c r="X3" t="n">
+        <v>135.5498963213982</v>
+      </c>
+      <c r="Y3" t="n">
         <v>14.10435764502126</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Z3" t="n">
+        <v>140.3808536258995</v>
+      </c>
+      <c r="AA3" t="n">
         <v>4.906942759845273</v>
       </c>
-      <c r="P3" t="n">
+      <c r="AB3" t="n">
+        <v>126.8290529521645</v>
+      </c>
+      <c r="AC3" t="n">
         <v>16.43663325208299</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="AD3" t="n">
+        <v>92.78817672256039</v>
+      </c>
+      <c r="AE3" t="n">
         <v>21.98909184611436</v>
       </c>
-      <c r="R3" t="n">
+      <c r="AF3" t="n">
+        <v>75.441717599512</v>
+      </c>
+      <c r="AG3" t="n">
         <v>23.11864250940634</v>
       </c>
-      <c r="S3" t="n">
+      <c r="AH3" t="n">
         <v>66.30808085225443</v>
       </c>
-      <c r="T3" t="n">
+      <c r="AI3" t="n">
         <v>38.92822547620078</v>
       </c>
-      <c r="U3" t="n">
+      <c r="AJ3" t="n">
         <v>98.75697075595527</v>
       </c>
-      <c r="V3" t="n">
+      <c r="AK3" t="n">
         <v>4.775418085409394</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AL3" t="n">
         <v>-0.3569261909376645</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AM3" t="n">
         <v>2.472968152228822</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AN3" t="n">
         <v>0.1978490792267708</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AO3" t="n">
         <v>2.161931991577148</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AP3" t="n">
         <v>-0.1198581093591988</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AQ3" t="n">
         <v>1.681007324381077</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AR3" t="n">
         <v>-0.150690518372448</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AS3" t="n">
         <v>1.729446539642117</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AT3" t="n">
         <v>-0.1639570412060881</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AU3" t="n">
         <v>-6.719839625802829</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AV3" t="n">
         <v>4.147044577187103</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AW3" t="n">
         <v>1.731606795810463</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AX3" t="n">
         <v>3.745805838367351</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AY3" t="n">
         <v>-5.163859352480888</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AZ3" t="n">
         <v>0.6737271926735764</v>
       </c>
     </row>
@@ -857,105 +1022,150 @@
         <v>3.4</v>
       </c>
       <c r="D4" t="n">
+        <v>217.955355914772</v>
+      </c>
+      <c r="E4" t="n">
         <v>7.691468854322499</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>203.8131388704828</v>
+      </c>
+      <c r="G4" t="n">
         <v>17.65118808611064</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>187.5460133315824</v>
+      </c>
+      <c r="I4" t="n">
         <v>2.357715173816003</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>183.8760104077928</v>
+      </c>
+      <c r="K4" t="n">
         <v>5.115491853538137</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
+        <v>183.4291962697996</v>
+      </c>
+      <c r="M4" t="n">
         <v>14.60026247281555</v>
       </c>
-      <c r="I4" t="n">
+      <c r="N4" t="n">
+        <v>191.8128298022223</v>
+      </c>
+      <c r="O4" t="n">
         <v>18.13070824805726</v>
       </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
+        <v>188.2091024074149</v>
+      </c>
+      <c r="Q4" t="n">
         <v>25.91084622322244</v>
       </c>
-      <c r="K4" t="n">
+      <c r="R4" t="n">
+        <v>146.8481089544635</v>
+      </c>
+      <c r="S4" t="n">
         <v>26.34989880500957</v>
       </c>
-      <c r="L4" t="n">
+      <c r="T4" t="n">
+        <v>143.6700549700582</v>
+      </c>
+      <c r="U4" t="n">
         <v>19.14662083835467</v>
       </c>
-      <c r="M4" t="n">
+      <c r="V4" t="n">
+        <v>151.4983789295169</v>
+      </c>
+      <c r="W4" t="n">
         <v>15.58190339000513</v>
       </c>
-      <c r="N4" t="n">
+      <c r="X4" t="n">
+        <v>141.1289909038138</v>
+      </c>
+      <c r="Y4" t="n">
         <v>10.96956483015777</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Z4" t="n">
+        <v>149.0679898498752</v>
+      </c>
+      <c r="AA4" t="n">
         <v>4.987564898551778</v>
       </c>
-      <c r="P4" t="n">
+      <c r="AB4" t="n">
+        <v>129.9202442507372</v>
+      </c>
+      <c r="AC4" t="n">
         <v>16.12572974347054</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="AD4" t="n">
+        <v>95.47526639404029</v>
+      </c>
+      <c r="AE4" t="n">
         <v>22.57611930793059</v>
       </c>
-      <c r="R4" t="n">
+      <c r="AF4" t="n">
+        <v>80.23259009875304</v>
+      </c>
+      <c r="AG4" t="n">
         <v>21.83675231663048</v>
       </c>
-      <c r="S4" t="n">
+      <c r="AH4" t="n">
         <v>62.39631417482714</v>
       </c>
-      <c r="T4" t="n">
+      <c r="AI4" t="n">
         <v>49.51023792769742</v>
       </c>
-      <c r="U4" t="n">
+      <c r="AJ4" t="n">
         <v>90.97239341507552</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AK4" t="n">
         <v>4.388706227566334</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AL4" t="n">
         <v>-0.2524598101352127</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AM4" t="n">
         <v>3.313586931702093</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AN4" t="n">
         <v>0.3380607882290032</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AO4" t="n">
         <v>2.131065121779206</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AP4" t="n">
         <v>0.08684083079615365</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AQ4" t="n">
         <v>1.651544638559328</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AR4" t="n">
         <v>0.2550678895720349</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AS4" t="n">
         <v>1.583848709755757</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AT4" t="n">
         <v>0.1920130743202595</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AU4" t="n">
         <v>0.1992565592628889</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AV4" t="n">
         <v>2.251569020173145</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AW4" t="n">
         <v>5.970248266326481</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AX4" t="n">
         <v>0.6904922500697854</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AY4" t="n">
         <v>-2.740539891041022</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AZ4" t="n">
         <v>1.900464169458938</v>
       </c>
     </row>
@@ -970,105 +1180,150 @@
         <v>3.4</v>
       </c>
       <c r="D5" t="n">
+        <v>216.7313453364879</v>
+      </c>
+      <c r="E5" t="n">
         <v>7.318609251198192</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>206.6377411666492</v>
+      </c>
+      <c r="G5" t="n">
         <v>17.45769040804382</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
+        <v>188.0437993665114</v>
+      </c>
+      <c r="I5" t="n">
         <v>2.074423039213136</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
+        <v>184.5382131752393</v>
+      </c>
+      <c r="K5" t="n">
         <v>5.058027632693024</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="n">
+        <v>185.6974239552275</v>
+      </c>
+      <c r="M5" t="n">
         <v>14.62708912842663</v>
       </c>
-      <c r="I5" t="n">
+      <c r="N5" t="n">
+        <v>194.2602768519246</v>
+      </c>
+      <c r="O5" t="n">
         <v>18.01491879402322</v>
       </c>
-      <c r="J5" t="n">
+      <c r="P5" t="n">
+        <v>190.7990684238732</v>
+      </c>
+      <c r="Q5" t="n">
         <v>25.87680234976694</v>
       </c>
-      <c r="K5" t="n">
+      <c r="R5" t="n">
+        <v>150.3675049585654</v>
+      </c>
+      <c r="S5" t="n">
         <v>26.46931343890251</v>
       </c>
-      <c r="L5" t="n">
+      <c r="T5" t="n">
+        <v>147.5457684537198</v>
+      </c>
+      <c r="U5" t="n">
         <v>18.49404030657829</v>
       </c>
-      <c r="M5" t="n">
+      <c r="V5" t="n">
+        <v>155.7204201542739</v>
+      </c>
+      <c r="W5" t="n">
         <v>15.60176335328014</v>
       </c>
-      <c r="N5" t="n">
+      <c r="X5" t="n">
+        <v>147.8525917242605</v>
+      </c>
+      <c r="Y5" t="n">
         <v>8.595806554699621</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Z5" t="n">
+        <v>156.5354093592218</v>
+      </c>
+      <c r="AA5" t="n">
         <v>4.804935320049314</v>
       </c>
-      <c r="P5" t="n">
+      <c r="AB5" t="n">
+        <v>133.1439473442998</v>
+      </c>
+      <c r="AC5" t="n">
         <v>15.97510168738399</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="AD5" t="n">
+        <v>98.51979483949377</v>
+      </c>
+      <c r="AE5" t="n">
         <v>23.10146264150633</v>
       </c>
-      <c r="R5" t="n">
+      <c r="AF5" t="n">
+        <v>73.96200820909324</v>
+      </c>
+      <c r="AG5" t="n">
         <v>25.61599339153749</v>
       </c>
-      <c r="S5" t="n">
+      <c r="AH5" t="n">
         <v>66.65929657544388</v>
       </c>
-      <c r="T5" t="n">
+      <c r="AI5" t="n">
         <v>62.32108347550054</v>
       </c>
-      <c r="U5" t="n">
+      <c r="AJ5" t="n">
         <v>91.11895026216885</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AK5" t="n">
         <v>3.701277151175423</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AL5" t="n">
         <v>-0.4533280717565654</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AM5" t="n">
         <v>3.543883638179049</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AN5" t="n">
         <v>-0.2225283950778617</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AO5" t="n">
         <v>2.375472572678369</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AP5" t="n">
         <v>-0.003381113634043168</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AQ5" t="n">
         <v>2.387704206696639</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AR5" t="n">
         <v>0.09611993816727496</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AS5" t="n">
         <v>2.168793627556336</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AT5" t="n">
         <v>0.1049133057289914</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AU5" t="n">
         <v>3.455777238022779</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AV5" t="n">
         <v>1.422088437357163</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AW5" t="n">
         <v>7.253269291589746</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AX5" t="n">
         <v>-0.05721013261407563</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AY5" t="n">
         <v>2.29878721032445</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AZ5" t="n">
         <v>1.225877732485959</v>
       </c>
     </row>
@@ -1083,105 +1338,150 @@
         <v>3.4</v>
       </c>
       <c r="D6" t="n">
+        <v>219.8156504005405</v>
+      </c>
+      <c r="E6" t="n">
         <v>7.299425923232493</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>209.4974355579268</v>
+      </c>
+      <c r="G6" t="n">
         <v>17.45380536884281</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
+        <v>188.3393300509622</v>
+      </c>
+      <c r="I6" t="n">
         <v>2.17139886626115</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>185.57155145821</v>
+      </c>
+      <c r="K6" t="n">
         <v>5.467133352942498</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
+        <v>188.0320567273079</v>
+      </c>
+      <c r="M6" t="n">
         <v>14.88170028578305</v>
       </c>
-      <c r="I6" t="n">
+      <c r="N6" t="n">
+        <v>196.81283061386</v>
+      </c>
+      <c r="O6" t="n">
         <v>18.19829805522946</v>
       </c>
-      <c r="J6" t="n">
+      <c r="P6" t="n">
+        <v>193.5407421943989</v>
+      </c>
+      <c r="Q6" t="n">
         <v>26.04499681621579</v>
       </c>
-      <c r="K6" t="n">
+      <c r="R6" t="n">
+        <v>154.1296865585003</v>
+      </c>
+      <c r="S6" t="n">
         <v>26.75418258558774</v>
       </c>
-      <c r="L6" t="n">
+      <c r="T6" t="n">
+        <v>151.6222664312268</v>
+      </c>
+      <c r="U6" t="n">
         <v>18.37385853977068</v>
       </c>
-      <c r="M6" t="n">
+      <c r="V6" t="n">
+        <v>159.8120329566036</v>
+      </c>
+      <c r="W6" t="n">
         <v>15.30215865331339</v>
       </c>
-      <c r="N6" t="n">
+      <c r="X6" t="n">
+        <v>153.657693423278</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.133398664758563</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Z6" t="n">
+        <v>162.3681081271341</v>
+      </c>
+      <c r="AA6" t="n">
         <v>3.570013519719983</v>
       </c>
-      <c r="P6" t="n">
+      <c r="AB6" t="n">
+        <v>136.303826663511</v>
+      </c>
+      <c r="AC6" t="n">
         <v>15.83440226020543</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="AD6" t="n">
+        <v>101.6628971082945</v>
+      </c>
+      <c r="AE6" t="n">
         <v>23.28087069464068</v>
       </c>
-      <c r="R6" t="n">
+      <c r="AF6" t="n">
+        <v>74.7662818791173</v>
+      </c>
+      <c r="AG6" t="n">
         <v>31.21152972498684</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AH6" t="n">
         <v>75.8695097395688</v>
       </c>
-      <c r="T6" t="n">
+      <c r="AI6" t="n">
         <v>74.13080195473417</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AJ6" t="n">
         <v>95.76401522420296</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AK6" t="n">
         <v>2.429422182394259</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AL6" t="n">
         <v>-0.9329834136557066</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AM6" t="n">
         <v>2.539495153630033</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AN6" t="n">
         <v>-0.7452142492253728</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AO6" t="n">
         <v>2.069207996341352</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AP6" t="n">
         <v>-0.2606989305915551</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AQ6" t="n">
         <v>2.150182351998404</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AR6" t="n">
         <v>-0.2391274262827326</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AS6" t="n">
         <v>1.996135474942254</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AT6" t="n">
         <v>-0.1474687140038672</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AU6" t="n">
         <v>4.340090148427704</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AV6" t="n">
         <v>-1.368438025905248</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AW6" t="n">
         <v>3.917865135171909</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AX6" t="n">
         <v>-2.861498591814335</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AY6" t="n">
         <v>2.606411457846887</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AZ6" t="n">
         <v>-0.8221706160834185</v>
       </c>
     </row>
@@ -1196,105 +1496,150 @@
         <v>3.4</v>
       </c>
       <c r="D7" t="n">
+        <v>222.4805785525352</v>
+      </c>
+      <c r="E7" t="n">
         <v>7.374125812070591</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>212.2211493076162</v>
+      </c>
+      <c r="G7" t="n">
         <v>17.56018983556869</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
+        <v>189.7164760751927</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.790837389357546</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
+        <v>188.306010242895</v>
+      </c>
+      <c r="K7" t="n">
         <v>6.26325377335785</v>
       </c>
-      <c r="H7" t="n">
+      <c r="L7" t="n">
+        <v>190.6563385665839</v>
+      </c>
+      <c r="M7" t="n">
         <v>15.44966339219547</v>
       </c>
-      <c r="I7" t="n">
+      <c r="N7" t="n">
+        <v>199.4164515048899</v>
+      </c>
+      <c r="O7" t="n">
         <v>18.56565732482478</v>
       </c>
-      <c r="J7" t="n">
+      <c r="P7" t="n">
+        <v>196.4464267771295</v>
+      </c>
+      <c r="Q7" t="n">
         <v>26.39651251177416</v>
       </c>
-      <c r="K7" t="n">
+      <c r="R7" t="n">
+        <v>157.2221300449777</v>
+      </c>
+      <c r="S7" t="n">
         <v>26.9447844755565</v>
       </c>
-      <c r="L7" t="n">
+      <c r="T7" t="n">
+        <v>154.8141612736046</v>
+      </c>
+      <c r="U7" t="n">
         <v>18.39991657446462</v>
       </c>
-      <c r="M7" t="n">
+      <c r="V7" t="n">
+        <v>162.9413047749946</v>
+      </c>
+      <c r="W7" t="n">
         <v>15.26367430991315</v>
       </c>
-      <c r="N7" t="n">
+      <c r="X7" t="n">
+        <v>156.7520075317815</v>
+      </c>
+      <c r="Y7" t="n">
         <v>6.929233496916209</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Z7" t="n">
+        <v>164.8710375643791</v>
+      </c>
+      <c r="AA7" t="n">
         <v>2.95527600227518</v>
       </c>
-      <c r="P7" t="n">
+      <c r="AB7" t="n">
+        <v>139.3857369524367</v>
+      </c>
+      <c r="AC7" t="n">
         <v>15.83106751137591</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="AD7" t="n">
+        <v>104.6036550508323</v>
+      </c>
+      <c r="AE7" t="n">
         <v>23.24195740070749</v>
       </c>
-      <c r="R7" t="n">
+      <c r="AF7" t="n">
+        <v>75.58773105237501</v>
+      </c>
+      <c r="AG7" t="n">
         <v>27.01511396583935</v>
       </c>
-      <c r="S7" t="n">
+      <c r="AH7" t="n">
         <v>80.43440839361708</v>
       </c>
-      <c r="T7" t="n">
+      <c r="AI7" t="n">
         <v>75.15542690448352</v>
       </c>
-      <c r="U7" t="n">
+      <c r="AJ7" t="n">
         <v>97.58208864668265</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AK7" t="n">
         <v>1.083789700311972</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AL7" t="n">
         <v>-0.4073046031573154</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AM7" t="n">
         <v>1.379203931659673</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AN7" t="n">
         <v>-0.5105699968676187</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AO7" t="n">
         <v>1.725463647368952</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AP7" t="n">
         <v>-0.2072640429151803</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AQ7" t="n">
         <v>1.613860011946228</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AR7" t="n">
         <v>-0.3040091619423957</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AS7" t="n">
         <v>1.67750835418701</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AT7" t="n">
         <v>-0.2174382514141994</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AU7" t="n">
         <v>-0.3131045682684143</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AV7" t="n">
         <v>-2.929141950029497</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AW7" t="n">
         <v>-1.470435966030863</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AX7" t="n">
         <v>-1.885792078921873</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AY7" t="n">
         <v>-0.5457115715159763</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AZ7" t="n">
         <v>-1.135022481081075</v>
       </c>
     </row>
@@ -1309,105 +1654,150 @@
         <v>3.4</v>
       </c>
       <c r="D8" t="n">
+        <v>224.5261539909857</v>
+      </c>
+      <c r="E8" t="n">
         <v>7.274078477358988</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
+        <v>214.9528331367682</v>
+      </c>
+      <c r="G8" t="n">
         <v>17.594380074359</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
+        <v>193.0412314631415</v>
+      </c>
+      <c r="I8" t="n">
         <v>3.618603834869172</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
+        <v>192.4199911212245</v>
+      </c>
+      <c r="K8" t="n">
         <v>7.009327394742496</v>
       </c>
-      <c r="H8" t="n">
+      <c r="L8" t="n">
+        <v>193.53424679303</v>
+      </c>
+      <c r="M8" t="n">
         <v>15.90015654868268</v>
       </c>
-      <c r="I8" t="n">
+      <c r="N8" t="n">
+        <v>202.3335241933241</v>
+      </c>
+      <c r="O8" t="n">
         <v>18.84853985292692</v>
       </c>
-      <c r="J8" t="n">
+      <c r="P8" t="n">
+        <v>199.2307460899894</v>
+      </c>
+      <c r="Q8" t="n">
         <v>26.46798451741537</v>
       </c>
-      <c r="K8" t="n">
+      <c r="R8" t="n">
+        <v>159.4981207746141</v>
+      </c>
+      <c r="S8" t="n">
         <v>26.5495408511331</v>
       </c>
-      <c r="L8" t="n">
+      <c r="T8" t="n">
+        <v>156.9188171075592</v>
+      </c>
+      <c r="U8" t="n">
         <v>18.15054764984347</v>
       </c>
-      <c r="M8" t="n">
+      <c r="V8" t="n">
+        <v>165.2606963773146</v>
+      </c>
+      <c r="W8" t="n">
         <v>14.74050183668204</v>
       </c>
-      <c r="N8" t="n">
+      <c r="X8" t="n">
+        <v>158.3127628488743</v>
+      </c>
+      <c r="Y8" t="n">
         <v>6.863423205436545</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Z8" t="n">
+        <v>166.2300910340979</v>
+      </c>
+      <c r="AA8" t="n">
         <v>2.954910359484082</v>
       </c>
-      <c r="P8" t="n">
+      <c r="AB8" t="n">
+        <v>141.7825315353718</v>
+      </c>
+      <c r="AC8" t="n">
         <v>15.77696482340495</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="AD8" t="n">
+        <v>106.8837927757426</v>
+      </c>
+      <c r="AE8" t="n">
         <v>22.95051344743012</v>
       </c>
-      <c r="R8" t="n">
+      <c r="AF8" t="n">
+        <v>70.81185005235334</v>
+      </c>
+      <c r="AG8" t="n">
         <v>28.58488772777801</v>
       </c>
-      <c r="S8" t="n">
+      <c r="AH8" t="n">
         <v>76.58331256752611</v>
       </c>
-      <c r="T8" t="n">
+      <c r="AI8" t="n">
         <v>71.39463919248939</v>
       </c>
-      <c r="U8" t="n">
+      <c r="AJ8" t="n">
         <v>96.199778020176</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AK8" t="n">
         <v>1.019366311688795</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AL8" t="n">
         <v>0.01394517032812819</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AM8" t="n">
         <v>0.9705730194741106</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AN8" t="n">
         <v>-0.1288478340662974</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AO8" t="n">
         <v>1.396984326923994</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AP8" t="n">
         <v>-0.1976621573698437</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AQ8" t="n">
         <v>1.297076560081317</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AR8" t="n">
         <v>-0.115517014307335</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AS8" t="n">
         <v>1.437797022204025</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AT8" t="n">
         <v>-0.04230815468104727</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AU8" t="n">
         <v>-3.098954617229457</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AV8" t="n">
         <v>-0.4073907293970244</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AW8" t="n">
         <v>-2.06635715178195</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AX8" t="n">
         <v>0.4786604498962176</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AY8" t="n">
         <v>-0.8556983623113549</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AZ8" t="n">
         <v>0.1197556857027871</v>
       </c>
     </row>
@@ -1422,105 +1812,150 @@
         <v>3.4</v>
       </c>
       <c r="D9" t="n">
+        <v>224.9620121421544</v>
+      </c>
+      <c r="E9" t="n">
         <v>7.430379745808056</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
+        <v>217.3964042528301</v>
+      </c>
+      <c r="G9" t="n">
         <v>17.5247322244847</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
+        <v>196.9401349919908</v>
+      </c>
+      <c r="I9" t="n">
         <v>4.006697066286777</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
+        <v>197.2883140026255</v>
+      </c>
+      <c r="K9" t="n">
         <v>7.449271019468915</v>
       </c>
-      <c r="H9" t="n">
+      <c r="L9" t="n">
+        <v>196.0834879401728</v>
+      </c>
+      <c r="M9" t="n">
         <v>16.06155070852726</v>
       </c>
-      <c r="I9" t="n">
+      <c r="N9" t="n">
+        <v>204.8627138476</v>
+      </c>
+      <c r="O9" t="n">
         <v>18.88976185034353</v>
       </c>
-      <c r="J9" t="n">
+      <c r="P9" t="n">
+        <v>201.7899876790689</v>
+      </c>
+      <c r="Q9" t="n">
         <v>26.39141109818262</v>
       </c>
-      <c r="K9" t="n">
+      <c r="R9" t="n">
+        <v>161.5649542909987</v>
+      </c>
+      <c r="S9" t="n">
         <v>26.39682607447848</v>
       </c>
-      <c r="L9" t="n">
+      <c r="T9" t="n">
+        <v>158.7838089043367</v>
+      </c>
+      <c r="U9" t="n">
         <v>18.1620424689976</v>
       </c>
-      <c r="M9" t="n">
+      <c r="V9" t="n">
+        <v>167.0981480551104</v>
+      </c>
+      <c r="W9" t="n">
         <v>14.55764986944537</v>
       </c>
-      <c r="N9" t="n">
+      <c r="X9" t="n">
+        <v>159.5954947437801</v>
+      </c>
+      <c r="Y9" t="n">
         <v>6.981022611577464</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Z9" t="n">
+        <v>167.5038236590988</v>
+      </c>
+      <c r="AA9" t="n">
         <v>2.860005426068681</v>
       </c>
-      <c r="P9" t="n">
+      <c r="AB9" t="n">
+        <v>144.0111049354499</v>
+      </c>
+      <c r="AC9" t="n">
         <v>16.20435552394137</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="AD9" t="n">
+        <v>109.2325253858634</v>
+      </c>
+      <c r="AE9" t="n">
         <v>23.11312141147912</v>
       </c>
-      <c r="R9" t="n">
+      <c r="AF9" t="n">
+        <v>72.80001010455138</v>
+      </c>
+      <c r="AG9" t="n">
         <v>28.41176310329573</v>
       </c>
-      <c r="S9" t="n">
+      <c r="AH9" t="n">
         <v>73.28938678440238</v>
       </c>
-      <c r="T9" t="n">
+      <c r="AI9" t="n">
         <v>69.45161071094287</v>
       </c>
-      <c r="U9" t="n">
+      <c r="AJ9" t="n">
         <v>95.96903617419157</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AK9" t="n">
         <v>0.9796708019067207</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AL9" t="n">
         <v>-0.1438580083508868</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AM9" t="n">
         <v>0.8768030261317058</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AN9" t="n">
         <v>-0.1242644059742584</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AO9" t="n">
         <v>1.22210795152272</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AP9" t="n">
         <v>-0.1346680204919052</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AQ9" t="n">
         <v>1.321758953392081</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AR9" t="n">
         <v>-0.01534194811015913</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AS9" t="n">
         <v>1.48954124315411</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AT9" t="n">
         <v>-0.01382193666823255</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AU9" t="n">
         <v>-2.495218008274126</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AV9" t="n">
         <v>0.7371807377399481</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AW9" t="n">
         <v>-0.9211793895327984</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AX9" t="n">
         <v>0.556396863869337</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AY9" t="n">
         <v>0.3239570588464459</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AZ9" t="n">
         <v>0.6563247662976593</v>
       </c>
     </row>
@@ -1535,105 +1970,150 @@
         <v>3.4</v>
       </c>
       <c r="D10" t="n">
+        <v>227.4224170450623</v>
+      </c>
+      <c r="E10" t="n">
         <v>7.463549214897424</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>219.7354995845058</v>
+      </c>
+      <c r="G10" t="n">
         <v>17.40308450468888</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
+        <v>202.9447693520404</v>
+      </c>
+      <c r="I10" t="n">
         <v>4.316731040359387</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
+        <v>202.1709499967859</v>
+      </c>
+      <c r="K10" t="n">
         <v>7.476069808851743</v>
       </c>
-      <c r="H10" t="n">
+      <c r="L10" t="n">
+        <v>199.0909277293699</v>
+      </c>
+      <c r="M10" t="n">
         <v>15.9922526745086</v>
       </c>
-      <c r="I10" t="n">
+      <c r="N10" t="n">
+        <v>207.4164036740648</v>
+      </c>
+      <c r="O10" t="n">
         <v>18.8196881612142</v>
       </c>
-      <c r="J10" t="n">
+      <c r="P10" t="n">
+        <v>204.2141700636411</v>
+      </c>
+      <c r="Q10" t="n">
         <v>26.25060115300172</v>
       </c>
-      <c r="K10" t="n">
+      <c r="R10" t="n">
+        <v>163.6534765933422</v>
+      </c>
+      <c r="S10" t="n">
         <v>26.14435777596548</v>
       </c>
-      <c r="L10" t="n">
+      <c r="T10" t="n">
+        <v>160.5918701320675</v>
+      </c>
+      <c r="U10" t="n">
         <v>17.92526907954656</v>
       </c>
-      <c r="M10" t="n">
+      <c r="V10" t="n">
+        <v>168.6386233525918</v>
+      </c>
+      <c r="W10" t="n">
         <v>13.98144241765882</v>
       </c>
-      <c r="N10" t="n">
+      <c r="X10" t="n">
+        <v>160.58389054968</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6.753062525539534</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Z10" t="n">
+        <v>168.4513762994861</v>
+      </c>
+      <c r="AA10" t="n">
         <v>2.30843726624834</v>
       </c>
-      <c r="P10" t="n">
+      <c r="AB10" t="n">
+        <v>146.1201827407729</v>
+      </c>
+      <c r="AC10" t="n">
         <v>16.36094167722878</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="AD10" t="n">
+        <v>111.1951954483141</v>
+      </c>
+      <c r="AE10" t="n">
         <v>23.40397625104756</v>
       </c>
-      <c r="R10" t="n">
+      <c r="AF10" t="n">
+        <v>74.96051630229815</v>
+      </c>
+      <c r="AG10" t="n">
         <v>28.63633730732803</v>
       </c>
-      <c r="S10" t="n">
+      <c r="AH10" t="n">
         <v>70.48209363770044</v>
       </c>
-      <c r="T10" t="n">
+      <c r="AI10" t="n">
         <v>68.79398711182213</v>
       </c>
-      <c r="U10" t="n">
+      <c r="AJ10" t="n">
         <v>97.56457492774821</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AK10" t="n">
         <v>0.6603970088011835</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AL10" t="n">
         <v>-0.2014148150775463</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AM10" t="n">
         <v>0.723097256734862</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AN10" t="n">
         <v>-0.03564363675760143</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AO10" t="n">
         <v>1.087941430139203</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AP10" t="n">
         <v>0.008172464708910176</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AQ10" t="n">
         <v>1.192404395299601</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AR10" t="n">
         <v>-0.04756314534667419</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AS10" t="n">
         <v>1.327627618262109</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AT10" t="n">
         <v>-0.1366621129056264</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AU10" t="n">
         <v>-1.115612853959568</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AV10" t="n">
         <v>0.9221540600561227</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AW10" t="n">
         <v>-0.8768455471499383</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AX10" t="n">
         <v>-0.3597421418545149</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AY10" t="n">
         <v>0.3893186922800406</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AZ10" t="n">
         <v>-0.07127932347718158</v>
       </c>
     </row>
@@ -1648,105 +2128,150 @@
         <v>3.4</v>
       </c>
       <c r="D11" t="n">
+        <v>231.2331358612852</v>
+      </c>
+      <c r="E11" t="n">
         <v>7.075398357201978</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>221.789617921021</v>
+      </c>
+      <c r="G11" t="n">
         <v>17.30142025237388</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
+        <v>207.7677182567881</v>
+      </c>
+      <c r="I11" t="n">
         <v>4.294149791095274</v>
       </c>
-      <c r="G11" t="n">
+      <c r="J11" t="n">
+        <v>206.1548167763027</v>
+      </c>
+      <c r="K11" t="n">
         <v>7.361412724704611</v>
       </c>
-      <c r="H11" t="n">
+      <c r="L11" t="n">
+        <v>201.3896775414758</v>
+      </c>
+      <c r="M11" t="n">
         <v>15.35633520031652</v>
       </c>
-      <c r="I11" t="n">
+      <c r="N11" t="n">
+        <v>209.7195468895824</v>
+      </c>
+      <c r="O11" t="n">
         <v>18.57910724396401</v>
       </c>
-      <c r="J11" t="n">
+      <c r="P11" t="n">
+        <v>206.4404583991842</v>
+      </c>
+      <c r="Q11" t="n">
         <v>25.97267786661784</v>
       </c>
-      <c r="K11" t="n">
+      <c r="R11" t="n">
+        <v>165.1320366825618</v>
+      </c>
+      <c r="S11" t="n">
         <v>25.83515194290919</v>
       </c>
-      <c r="L11" t="n">
+      <c r="T11" t="n">
+        <v>162.0292658163301</v>
+      </c>
+      <c r="U11" t="n">
         <v>17.62314708520335</v>
       </c>
-      <c r="M11" t="n">
+      <c r="V11" t="n">
+        <v>169.9390593319075</v>
+      </c>
+      <c r="W11" t="n">
         <v>13.62640800205528</v>
       </c>
-      <c r="N11" t="n">
+      <c r="X11" t="n">
+        <v>161.38581965832</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6.62441497153424</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Z11" t="n">
+        <v>168.9736952003858</v>
+      </c>
+      <c r="AA11" t="n">
         <v>2.102271411435825</v>
       </c>
-      <c r="P11" t="n">
+      <c r="AB11" t="n">
+        <v>147.9357310220705</v>
+      </c>
+      <c r="AC11" t="n">
         <v>16.31197408581457</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="AD11" t="n">
+        <v>113.1631573210371</v>
+      </c>
+      <c r="AE11" t="n">
         <v>23.45019482551737</v>
       </c>
-      <c r="R11" t="n">
+      <c r="AF11" t="n">
+        <v>76.75815633002749</v>
+      </c>
+      <c r="AG11" t="n">
         <v>28.62209130686226</v>
       </c>
-      <c r="S11" t="n">
+      <c r="AH11" t="n">
         <v>70.00021626159926</v>
       </c>
-      <c r="T11" t="n">
+      <c r="AI11" t="n">
         <v>67.06446799551577</v>
       </c>
-      <c r="U11" t="n">
+      <c r="AJ11" t="n">
         <v>98.2804129488798</v>
       </c>
-      <c r="V11" t="n">
+      <c r="AK11" t="n">
         <v>0.5057402874561048</v>
       </c>
-      <c r="W11" t="n">
+      <c r="AL11" t="n">
         <v>0.01194931936602259</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AM11" t="n">
         <v>0.6949559678422645</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AN11" t="n">
         <v>0.05039960780042296</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AO11" t="n">
         <v>1.146695326406062</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AP11" t="n">
         <v>0.1918516260512337</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AQ11" t="n">
         <v>1.142331420952548</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AR11" t="n">
         <v>0.08698889549742225</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AS11" t="n">
         <v>1.117102541822066</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AT11" t="n">
         <v>0.04185189592077302</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AU11" t="n">
         <v>-0.5846114881504973</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AV11" t="n">
         <v>-0.02075492413281106</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AW11" t="n">
         <v>-1.936434909961713</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AX11" t="n">
         <v>-0.9196784254502578</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AY11" t="n">
         <v>0.3474894939659158</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AZ11" t="n">
         <v>-0.4343784703169907</v>
       </c>
     </row>
@@ -1761,105 +2286,150 @@
         <v>3.4</v>
       </c>
       <c r="D12" t="n">
+        <v>233.0073270518729</v>
+      </c>
+      <c r="E12" t="n">
         <v>7.291868223366166</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
+        <v>223.4817395692176</v>
+      </c>
+      <c r="G12" t="n">
         <v>17.4670284352404</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
+        <v>211.3931354584423</v>
+      </c>
+      <c r="I12" t="n">
         <v>4.826994550989032</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
+        <v>209.2622510507597</v>
+      </c>
+      <c r="K12" t="n">
         <v>7.609944039202754</v>
       </c>
-      <c r="H12" t="n">
+      <c r="L12" t="n">
+        <v>203.3182656511347</v>
+      </c>
+      <c r="M12" t="n">
         <v>14.96992165315236</v>
       </c>
-      <c r="I12" t="n">
+      <c r="N12" t="n">
+        <v>211.4297491438845</v>
+      </c>
+      <c r="O12" t="n">
         <v>18.64278076388312</v>
       </c>
-      <c r="J12" t="n">
+      <c r="P12" t="n">
+        <v>208.1341422195975</v>
+      </c>
+      <c r="Q12" t="n">
         <v>26.01996144504412</v>
       </c>
-      <c r="K12" t="n">
+      <c r="R12" t="n">
+        <v>166.4160524192432</v>
+      </c>
+      <c r="S12" t="n">
         <v>25.74167982060859</v>
       </c>
-      <c r="L12" t="n">
+      <c r="T12" t="n">
+        <v>163.3484695651007</v>
+      </c>
+      <c r="U12" t="n">
         <v>17.63571150759433</v>
       </c>
-      <c r="M12" t="n">
+      <c r="V12" t="n">
+        <v>171.330049122479</v>
+      </c>
+      <c r="W12" t="n">
         <v>13.40816321947896</v>
       </c>
-      <c r="N12" t="n">
+      <c r="X12" t="n">
+        <v>162.0915158589681</v>
+      </c>
+      <c r="Y12" t="n">
         <v>6.860989645017805</v>
       </c>
-      <c r="O12" t="n">
+      <c r="Z12" t="n">
+        <v>169.5176842872133</v>
+      </c>
+      <c r="AA12" t="n">
         <v>2.154635165600069</v>
       </c>
-      <c r="P12" t="n">
+      <c r="AB12" t="n">
+        <v>149.6301767335716</v>
+      </c>
+      <c r="AC12" t="n">
         <v>16.40384011234797</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="AD12" t="n">
+        <v>114.6478116596844</v>
+      </c>
+      <c r="AE12" t="n">
         <v>23.67739400119647</v>
       </c>
-      <c r="R12" t="n">
+      <c r="AF12" t="n">
+        <v>78.26322286687</v>
+      </c>
+      <c r="AG12" t="n">
         <v>28.70241232797609</v>
       </c>
-      <c r="S12" t="n">
+      <c r="AH12" t="n">
         <v>68.38529985743129</v>
       </c>
-      <c r="T12" t="n">
+      <c r="AI12" t="n">
         <v>64.14943922085855</v>
       </c>
-      <c r="U12" t="n">
+      <c r="AJ12" t="n">
         <v>98.86756603788905</v>
       </c>
-      <c r="V12" t="n">
+      <c r="AK12" t="n">
         <v>0.6488696226836931</v>
       </c>
-      <c r="W12" t="n">
+      <c r="AL12" t="n">
         <v>0.2189232102522634</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AM12" t="n">
         <v>0.8459942391578199</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AN12" t="n">
         <v>0.1225872919069104</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AO12" t="n">
         <v>1.438010229286572</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AP12" t="n">
         <v>0.1224225632687817</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AQ12" t="n">
         <v>1.354979251293424</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AR12" t="n">
         <v>0.1566814869008161</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AS12" t="n">
         <v>1.420932120465218</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AT12" t="n">
         <v>0.230371022055337</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AU12" t="n">
         <v>-1.092010660471522</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AV12" t="n">
         <v>-0.6844456873145004</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AW12" t="n">
         <v>-2.760316689633449</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AX12" t="n">
         <v>-0.4695528475012127</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AY12" t="n">
         <v>-0.7005146299818179</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AZ12" t="n">
         <v>-0.4934486683877582</v>
       </c>
     </row>
@@ -1874,105 +2444,150 @@
         <v>3.4</v>
       </c>
       <c r="D13" t="n">
+        <v>234.6125565025401</v>
+      </c>
+      <c r="E13" t="n">
         <v>7.444049618768354</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
+        <v>225.002476710377</v>
+      </c>
+      <c r="G13" t="n">
         <v>17.73603439331055</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
+        <v>214.7060179847775</v>
+      </c>
+      <c r="I13" t="n">
         <v>4.795429689664367</v>
       </c>
-      <c r="G13" t="n">
+      <c r="J13" t="n">
+        <v>212.3542268817307</v>
+      </c>
+      <c r="K13" t="n">
         <v>7.536031574222211</v>
       </c>
-      <c r="H13" t="n">
+      <c r="L13" t="n">
+        <v>205.0428092902434</v>
+      </c>
+      <c r="M13" t="n">
         <v>14.74383022768277</v>
       </c>
-      <c r="I13" t="n">
+      <c r="N13" t="n">
+        <v>213.2217361233758</v>
+      </c>
+      <c r="O13" t="n">
         <v>18.64642474668246</v>
       </c>
-      <c r="J13" t="n">
+      <c r="P13" t="n">
+        <v>209.6938373856511</v>
+      </c>
+      <c r="Q13" t="n">
         <v>26.00983342380388</v>
       </c>
-      <c r="K13" t="n">
+      <c r="R13" t="n">
+        <v>168.2166667694741</v>
+      </c>
+      <c r="S13" t="n">
         <v>25.74816521177901</v>
       </c>
-      <c r="L13" t="n">
+      <c r="T13" t="n">
+        <v>164.9647843245919</v>
+      </c>
+      <c r="U13" t="n">
         <v>17.6458688830653</v>
       </c>
-      <c r="M13" t="n">
+      <c r="V13" t="n">
+        <v>173.0146385084653</v>
+      </c>
+      <c r="W13" t="n">
         <v>13.22911891531437</v>
       </c>
-      <c r="N13" t="n">
+      <c r="X13" t="n">
+        <v>163.1257414986902</v>
+      </c>
+      <c r="Y13" t="n">
         <v>7.276585761536943</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Z13" t="n">
+        <v>170.2894589579698</v>
+      </c>
+      <c r="AA13" t="n">
         <v>2.355929435567652</v>
       </c>
-      <c r="P13" t="n">
+      <c r="AB13" t="n">
+        <v>151.3024169164347</v>
+      </c>
+      <c r="AC13" t="n">
         <v>16.32186497356875</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="AD13" t="n">
+        <v>115.8944872592358</v>
+      </c>
+      <c r="AE13" t="n">
         <v>23.92431678501427</v>
       </c>
-      <c r="R13" t="n">
+      <c r="AF13" t="n">
+        <v>79.64969899214751</v>
+      </c>
+      <c r="AG13" t="n">
         <v>28.79908027378381</v>
       </c>
-      <c r="S13" t="n">
+      <c r="AH13" t="n">
         <v>67.02451332473051</v>
       </c>
-      <c r="T13" t="n">
+      <c r="AI13" t="n">
         <v>60.89733461554524</v>
       </c>
-      <c r="U13" t="n">
+      <c r="AJ13" t="n">
         <v>97.36899035677047</v>
       </c>
-      <c r="V13" t="n">
+      <c r="AK13" t="n">
         <v>0.9423432451613435</v>
       </c>
-      <c r="W13" t="n">
+      <c r="AL13" t="n">
         <v>0.2825950054412194</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AM13" t="n">
         <v>0.9099352613408505</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AN13" t="n">
         <v>0.1241437425004665</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AO13" t="n">
         <v>1.416276735616913</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AP13" t="n">
         <v>-0.09481012398469436</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AQ13" t="n">
         <v>1.467641296116173</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AR13" t="n">
         <v>0.01467231317615135</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AS13" t="n">
         <v>1.564245934182027</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AT13" t="n">
         <v>-0.02265906503014522</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AU13" t="n">
         <v>-2.212701641281909</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AV13" t="n">
         <v>-0.5768105615618733</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AW13" t="n">
         <v>-3.160328624719631</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AX13" t="n">
         <v>0.7214477662667287</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AY13" t="n">
         <v>-0.4995254787599315</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AZ13" t="n">
         <v>1.049441101428096</v>
       </c>
     </row>
@@ -1987,105 +2602,150 @@
         <v>3.4</v>
       </c>
       <c r="D14" t="n">
+        <v>239.1444091657375</v>
+      </c>
+      <c r="E14" t="n">
         <v>9.454566062764918</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
+        <v>221.8104309731341</v>
+      </c>
+      <c r="G14" t="n">
         <v>16.6692257603855</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
+        <v>217.2815979055479</v>
+      </c>
+      <c r="I14" t="n">
         <v>4.938750841938858</v>
       </c>
-      <c r="G14" t="n">
+      <c r="J14" t="n">
+        <v>215.0157081298794</v>
+      </c>
+      <c r="K14" t="n">
         <v>7.552595747278093</v>
       </c>
-      <c r="H14" t="n">
+      <c r="L14" t="n">
+        <v>207.3092146629983</v>
+      </c>
+      <c r="M14" t="n">
         <v>14.27746279019836</v>
       </c>
-      <c r="I14" t="n">
+      <c r="N14" t="n">
+        <v>215.1724199792172</v>
+      </c>
+      <c r="O14" t="n">
         <v>18.49258098196476</v>
       </c>
-      <c r="J14" t="n">
+      <c r="P14" t="n">
+        <v>211.7291446273209</v>
+      </c>
+      <c r="Q14" t="n">
         <v>25.83767234856355</v>
       </c>
-      <c r="K14" t="n">
+      <c r="R14" t="n">
+        <v>169.7540789800333</v>
+      </c>
+      <c r="S14" t="n">
         <v>25.70333832544638</v>
       </c>
-      <c r="L14" t="n">
+      <c r="T14" t="n">
+        <v>166.4610498171326</v>
+      </c>
+      <c r="U14" t="n">
         <v>17.78741200764974</v>
       </c>
-      <c r="M14" t="n">
+      <c r="V14" t="n">
+        <v>174.326239038021</v>
+      </c>
+      <c r="W14" t="n">
         <v>13.1690136253411</v>
       </c>
-      <c r="N14" t="n">
+      <c r="X14" t="n">
+        <v>163.9988772750746</v>
+      </c>
+      <c r="Y14" t="n">
         <v>8.028034453696392</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Z14" t="n">
+        <v>171.4385625149341</v>
+      </c>
+      <c r="AA14" t="n">
         <v>2.690164552512741</v>
       </c>
-      <c r="P14" t="n">
+      <c r="AB14" t="n">
+        <v>152.967171905734</v>
+      </c>
+      <c r="AC14" t="n">
         <v>16.40832414018347</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="AD14" t="n">
+        <v>118.14625361287</v>
+      </c>
+      <c r="AE14" t="n">
         <v>23.95505837514891</v>
       </c>
-      <c r="R14" t="n">
+      <c r="AF14" t="n">
+        <v>81.19165283568361</v>
+      </c>
+      <c r="AG14" t="n">
         <v>29.06906912512813</v>
       </c>
-      <c r="S14" t="n">
+      <c r="AH14" t="n">
         <v>63.61669947297651</v>
       </c>
-      <c r="T14" t="n">
+      <c r="AI14" t="n">
         <v>57.60361884984049</v>
       </c>
-      <c r="U14" t="n">
+      <c r="AJ14" t="n">
         <v>98.06669636744039</v>
       </c>
-      <c r="V14" t="n">
+      <c r="AK14" t="n">
         <v>1.18764339609349</v>
       </c>
-      <c r="W14" t="n">
+      <c r="AL14" t="n">
         <v>0.1467234868529823</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AM14" t="n">
         <v>1.086552565824899</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AN14" t="n">
         <v>0.1498307573034408</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AO14" t="n">
         <v>1.237146634582089</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AP14" t="n">
         <v>-0.07161525969809493</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AQ14" t="n">
         <v>1.366516275608797</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AR14" t="n">
         <v>0.0004798977087565687</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AS14" t="n">
         <v>1.396295331048627</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AT14" t="n">
         <v>-0.0216683766520625</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AU14" t="n">
         <v>-2.069972861695173</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AV14" t="n">
         <v>0.7996568412941876</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AW14" t="n">
         <v>-1.31628081969228</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AX14" t="n">
         <v>1.850020465773196</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AY14" t="n">
         <v>1.244223044433439</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AZ14" t="n">
         <v>1.16609320818084</v>
       </c>
     </row>
@@ -2100,105 +2760,150 @@
         <v>3.4</v>
       </c>
       <c r="D15" t="n">
+        <v>233.6384676703325</v>
+      </c>
+      <c r="E15" t="n">
         <v>10.27355085873434</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
+        <v>223.6314565831043</v>
+      </c>
+      <c r="G15" t="n">
         <v>16.97304556555782</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
+        <v>217.3487042366191</v>
+      </c>
+      <c r="I15" t="n">
         <v>4.529653779158356</v>
       </c>
-      <c r="G15" t="n">
+      <c r="J15" t="n">
+        <v>216.7764554442244</v>
+      </c>
+      <c r="K15" t="n">
         <v>6.968397586903672</v>
       </c>
-      <c r="H15" t="n">
+      <c r="L15" t="n">
+        <v>209.4365212088781</v>
+      </c>
+      <c r="M15" t="n">
         <v>13.8992937236813</v>
       </c>
-      <c r="I15" t="n">
+      <c r="N15" t="n">
+        <v>217.1605599687455</v>
+      </c>
+      <c r="O15" t="n">
         <v>18.24988317827807</v>
       </c>
-      <c r="J15" t="n">
+      <c r="P15" t="n">
+        <v>213.6819276488419</v>
+      </c>
+      <c r="Q15" t="n">
         <v>25.58426498521305</v>
       </c>
-      <c r="K15" t="n">
+      <c r="R15" t="n">
+        <v>171.2404568990072</v>
+      </c>
+      <c r="S15" t="n">
         <v>25.66267324677596</v>
       </c>
-      <c r="L15" t="n">
+      <c r="T15" t="n">
+        <v>167.9183512883829</v>
+      </c>
+      <c r="U15" t="n">
         <v>17.89361453225427</v>
       </c>
-      <c r="M15" t="n">
+      <c r="V15" t="n">
+        <v>175.6322591524598</v>
+      </c>
+      <c r="W15" t="n">
         <v>12.78530310231743</v>
       </c>
-      <c r="N15" t="n">
+      <c r="X15" t="n">
+        <v>165.3718036624556</v>
+      </c>
+      <c r="Y15" t="n">
         <v>8.268754566814883</v>
       </c>
-      <c r="O15" t="n">
+      <c r="Z15" t="n">
+        <v>172.698879039034</v>
+      </c>
+      <c r="AA15" t="n">
         <v>2.517790828190799</v>
       </c>
-      <c r="P15" t="n">
+      <c r="AB15" t="n">
+        <v>154.549493383854</v>
+      </c>
+      <c r="AC15" t="n">
         <v>16.4138312373601</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="AD15" t="n">
+        <v>119.3906414086092</v>
+      </c>
+      <c r="AE15" t="n">
         <v>24.16557609612215</v>
       </c>
-      <c r="R15" t="n">
+      <c r="AF15" t="n">
+        <v>82.81908405588027</v>
+      </c>
+      <c r="AG15" t="n">
         <v>29.43740168361799</v>
       </c>
-      <c r="S15" t="n">
+      <c r="AH15" t="n">
         <v>62.28567957367865</v>
       </c>
-      <c r="T15" t="n">
+      <c r="AI15" t="n">
         <v>58.33681871735441</v>
       </c>
-      <c r="U15" t="n">
+      <c r="AJ15" t="n">
         <v>100.6063249253121</v>
       </c>
-      <c r="V15" t="n">
+      <c r="AK15" t="n">
         <v>1.240290276547695</v>
       </c>
-      <c r="W15" t="n">
+      <c r="AL15" t="n">
         <v>-0.08775927496294522</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AM15" t="n">
         <v>1.227230146421608</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AN15" t="n">
         <v>0.01275667907498466</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AO15" t="n">
         <v>1.285448040522585</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AP15" t="n">
         <v>0.04784736227481699</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AQ15" t="n">
         <v>1.514405460222392</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AR15" t="n">
         <v>0.111173129250815</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AS15" t="n">
         <v>1.543919110129066</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AT15" t="n">
         <v>0.1126529646258001</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AU15" t="n">
         <v>-0.5955901841456082</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AV15" t="n">
         <v>1.141087189983317</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AW15" t="n">
         <v>0.7730705045726795</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AX15" t="n">
         <v>0.3476811121508594</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AY15" t="n">
         <v>2.128869073056268</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AZ15" t="n">
         <v>0.354847539363582</v>
       </c>
     </row>
@@ -2213,105 +2918,150 @@
         <v>3.4</v>
       </c>
       <c r="D16" t="n">
+        <v>232.8048627342739</v>
+      </c>
+      <c r="E16" t="n">
         <v>10.74626192133477</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>225.6837104694218</v>
+      </c>
+      <c r="G16" t="n">
         <v>17.25537780328845</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
+        <v>219.2747398809339</v>
+      </c>
+      <c r="I16" t="n">
         <v>4.595385341779564</v>
       </c>
-      <c r="G16" t="n">
+      <c r="J16" t="n">
+        <v>209.7649514104458</v>
+      </c>
+      <c r="K16" t="n">
         <v>8.485878748251192</v>
       </c>
-      <c r="H16" t="n">
+      <c r="L16" t="n">
+        <v>211.4559668682991</v>
+      </c>
+      <c r="M16" t="n">
         <v>13.65963874979223</v>
       </c>
-      <c r="I16" t="n">
+      <c r="N16" t="n">
+        <v>218.8921866137931</v>
+      </c>
+      <c r="O16" t="n">
         <v>18.00704631399601</v>
       </c>
-      <c r="J16" t="n">
+      <c r="P16" t="n">
+        <v>215.7261633534803</v>
+      </c>
+      <c r="Q16" t="n">
         <v>25.40597063429812</v>
       </c>
-      <c r="K16" t="n">
+      <c r="R16" t="n">
+        <v>173.0036446726914</v>
+      </c>
+      <c r="S16" t="n">
         <v>25.93594381995235</v>
       </c>
-      <c r="L16" t="n">
+      <c r="T16" t="n">
+        <v>169.6236072702611</v>
+      </c>
+      <c r="U16" t="n">
         <v>18.04687743491315</v>
       </c>
-      <c r="M16" t="n">
+      <c r="V16" t="n">
+        <v>177.0513335694658</v>
+      </c>
+      <c r="W16" t="n">
         <v>12.78901796814398</v>
       </c>
-      <c r="N16" t="n">
+      <c r="X16" t="n">
+        <v>166.486762026523</v>
+      </c>
+      <c r="Y16" t="n">
         <v>8.497117495705895</v>
       </c>
-      <c r="O16" t="n">
+      <c r="Z16" t="n">
+        <v>173.9134047893768</v>
+      </c>
+      <c r="AA16" t="n">
         <v>2.470562711675117</v>
       </c>
-      <c r="P16" t="n">
+      <c r="AB16" t="n">
+        <v>156.2534201736991</v>
+      </c>
+      <c r="AC16" t="n">
         <v>16.63009941155183</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="AD16" t="n">
+        <v>121.2477369511381</v>
+      </c>
+      <c r="AE16" t="n">
         <v>24.59017922692265</v>
       </c>
-      <c r="R16" t="n">
+      <c r="AF16" t="n">
+        <v>84.51200261183664</v>
+      </c>
+      <c r="AG16" t="n">
         <v>30.08200949810922</v>
       </c>
-      <c r="S16" t="n">
+      <c r="AH16" t="n">
         <v>62.06061106961481</v>
       </c>
-      <c r="T16" t="n">
+      <c r="AI16" t="n">
         <v>58.90339534669219</v>
       </c>
-      <c r="U16" t="n">
+      <c r="AJ16" t="n">
         <v>102.5299577633072</v>
       </c>
-      <c r="V16" t="n">
+      <c r="AK16" t="n">
         <v>0.996000783663271</v>
       </c>
-      <c r="W16" t="n">
+      <c r="AL16" t="n">
         <v>-0.2185088522890771</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AM16" t="n">
         <v>1.111193683975977</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AN16" t="n">
         <v>-0.04244708000345363</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AO16" t="n">
         <v>1.31329279419378</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AP16" t="n">
         <v>-0.007525589449188538</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AQ16" t="n">
         <v>1.583726896461865</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AR16" t="n">
         <v>0.08353353392147932</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AS16" t="n">
         <v>1.632400370658715</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AT16" t="n">
         <v>0.03175935001237941</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AU16" t="n">
         <v>0.2803416361818508</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AV16" t="n">
         <v>0.3930433135011951</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AW16" t="n">
         <v>-0.4828309540925275</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AX16" t="n">
         <v>-0.5039449256785624</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AY16" t="n">
         <v>2.063294050339876</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AZ16" t="n">
         <v>0.8073031123753825</v>
       </c>
     </row>
@@ -2326,105 +3076,150 @@
         <v>3.4</v>
       </c>
       <c r="D17" t="n">
+        <v>233.27335780394</v>
+      </c>
+      <c r="E17" t="n">
         <v>8.854086585078679</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
+        <v>221.7904821165064</v>
+      </c>
+      <c r="G17" t="n">
         <v>18.43820071389489</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
+        <v>213.9626085673664</v>
+      </c>
+      <c r="I17" t="n">
         <v>4.003975509751772</v>
       </c>
-      <c r="G17" t="n">
+      <c r="J17" t="n">
+        <v>211.5985891804205</v>
+      </c>
+      <c r="K17" t="n">
         <v>8.281531097195673</v>
       </c>
-      <c r="H17" t="n">
+      <c r="L17" t="n">
+        <v>213.3714455070225</v>
+      </c>
+      <c r="M17" t="n">
         <v>13.44703701370997</v>
       </c>
-      <c r="I17" t="n">
+      <c r="N17" t="n">
+        <v>217.5670930066853</v>
+      </c>
+      <c r="O17" t="n">
         <v>17.94377671911362</v>
       </c>
-      <c r="J17" t="n">
+      <c r="P17" t="n">
+        <v>217.5143880793389</v>
+      </c>
+      <c r="Q17" t="n">
         <v>25.26136114242229</v>
       </c>
-      <c r="K17" t="n">
+      <c r="R17" t="n">
+        <v>174.6300317886028</v>
+      </c>
+      <c r="S17" t="n">
         <v>25.98809695412927</v>
       </c>
-      <c r="L17" t="n">
+      <c r="T17" t="n">
+        <v>171.2172930967723</v>
+      </c>
+      <c r="U17" t="n">
         <v>18.03921043450105</v>
       </c>
-      <c r="M17" t="n">
+      <c r="V17" t="n">
+        <v>178.3866203253996</v>
+      </c>
+      <c r="W17" t="n">
         <v>12.45347963157274</v>
       </c>
-      <c r="N17" t="n">
+      <c r="X17" t="n">
+        <v>167.613126538324</v>
+      </c>
+      <c r="Y17" t="n">
         <v>9.053125313833245</v>
       </c>
-      <c r="O17" t="n">
+      <c r="Z17" t="n">
+        <v>174.6882736260164</v>
+      </c>
+      <c r="AA17" t="n">
         <v>2.216788217531024</v>
       </c>
-      <c r="P17" t="n">
+      <c r="AB17" t="n">
+        <v>157.957304893656</v>
+      </c>
+      <c r="AC17" t="n">
         <v>16.54331937749335</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="AD17" t="n">
+        <v>123.1523866856352</v>
+      </c>
+      <c r="AE17" t="n">
         <v>24.70312673149379</v>
       </c>
-      <c r="R17" t="n">
+      <c r="AF17" t="n">
+        <v>87.6657284743397</v>
+      </c>
+      <c r="AG17" t="n">
         <v>29.99774148278203</v>
       </c>
-      <c r="S17" t="n">
+      <c r="AH17" t="n">
         <v>62.333143618128</v>
       </c>
-      <c r="T17" t="n">
+      <c r="AI17" t="n">
         <v>57.01554279177923</v>
       </c>
-      <c r="U17" t="n">
+      <c r="AJ17" t="n">
         <v>105.097177248754</v>
       </c>
-      <c r="V17" t="n">
+      <c r="AK17" t="n">
         <v>0.7897055064532787</v>
       </c>
-      <c r="W17" t="n">
+      <c r="AL17" t="n">
         <v>-0.08994618206159513</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AM17" t="n">
         <v>1.143291554552444</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AN17" t="n">
         <v>0.09267722461240543</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AO17" t="n">
         <v>1.289570449937317</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AP17" t="n">
         <v>-0.0002620575275814885</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AQ17" t="n">
         <v>1.701831919081668</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AR17" t="n">
         <v>0.04929131649910209</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AS17" t="n">
         <v>1.598295252373877</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AT17" t="n">
         <v>0.03976525989829732</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AU17" t="n">
         <v>0.1844935876101685</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AV17" t="n">
         <v>0.2110875776909272</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AW17" t="n">
         <v>-0.5510563686959321</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AX17" t="n">
         <v>0.3166124684103275</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AY17" t="n">
         <v>3.709742015816132</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AZ17" t="n">
         <v>0.2644491373736734</v>
       </c>
     </row>
@@ -2439,105 +3234,150 @@
         <v>3.4</v>
       </c>
       <c r="D18" t="n">
+        <v>228.4642689278785</v>
+      </c>
+      <c r="E18" t="n">
         <v>10.30505755268936</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
+        <v>223.4155388609738</v>
+      </c>
+      <c r="G18" t="n">
         <v>18.51410290873643</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
+        <v>215.3510544147898</v>
+      </c>
+      <c r="I18" t="n">
         <v>3.770173796525237</v>
       </c>
-      <c r="G18" t="n">
+      <c r="J18" t="n">
+        <v>213.1621497721537</v>
+      </c>
+      <c r="K18" t="n">
         <v>8.022042944076214</v>
       </c>
-      <c r="H18" t="n">
+      <c r="L18" t="n">
+        <v>215.3616906565132</v>
+      </c>
+      <c r="M18" t="n">
         <v>13.47784272322418</v>
       </c>
-      <c r="I18" t="n">
+      <c r="N18" t="n">
+        <v>219.6262983544499</v>
+      </c>
+      <c r="O18" t="n">
         <v>17.98110258494709</v>
       </c>
-      <c r="J18" t="n">
+      <c r="P18" t="n">
+        <v>219.3491153429586</v>
+      </c>
+      <c r="Q18" t="n">
         <v>25.46916637014835</v>
       </c>
-      <c r="K18" t="n">
+      <c r="R18" t="n">
+        <v>176.3567595109872</v>
+      </c>
+      <c r="S18" t="n">
         <v>25.66797865198014</v>
       </c>
-      <c r="L18" t="n">
+      <c r="T18" t="n">
+        <v>173.156292286325</v>
+      </c>
+      <c r="U18" t="n">
         <v>17.73290079536168</v>
       </c>
-      <c r="M18" t="n">
+      <c r="V18" t="n">
+        <v>179.7593425182586</v>
+      </c>
+      <c r="W18" t="n">
         <v>11.85863684255181</v>
       </c>
-      <c r="N18" t="n">
+      <c r="X18" t="n">
+        <v>168.8129270837662</v>
+      </c>
+      <c r="Y18" t="n">
         <v>9.106077640614613</v>
       </c>
-      <c r="O18" t="n">
+      <c r="Z18" t="n">
+        <v>175.4793669653277</v>
+      </c>
+      <c r="AA18" t="n">
         <v>1.99098573508838</v>
       </c>
-      <c r="P18" t="n">
+      <c r="AB18" t="n">
+        <v>159.9359186321286</v>
+      </c>
+      <c r="AC18" t="n">
         <v>16.34069185730414</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="AD18" t="n">
+        <v>125.309456696747</v>
+      </c>
+      <c r="AE18" t="n">
         <v>24.63443472030315</v>
       </c>
-      <c r="R18" t="n">
+      <c r="AF18" t="n">
+        <v>95.99361253968368</v>
+      </c>
+      <c r="AG18" t="n">
         <v>29.69235210553974</v>
       </c>
-      <c r="S18" t="n">
+      <c r="AH18" t="n">
         <v>62.27288457617819</v>
       </c>
-      <c r="T18" t="n">
+      <c r="AI18" t="n">
         <v>57.38354642254835</v>
       </c>
-      <c r="U18" t="n">
+      <c r="AJ18" t="n">
         <v>109.9999631212431</v>
       </c>
-      <c r="V18" t="n">
+      <c r="AK18" t="n">
         <v>0.8161581999866673</v>
       </c>
-      <c r="W18" t="n">
+      <c r="AL18" t="n">
         <v>-0.06285616692076601</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AM18" t="n">
         <v>1.297263727120473</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AN18" t="n">
         <v>0.1260498229493477</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AO18" t="n">
         <v>1.320769262652026</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AP18" t="n">
         <v>0.01335953989773244</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AQ18" t="n">
         <v>1.684189011864628</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AR18" t="n">
         <v>-0.02729226511421027</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AS18" t="n">
         <v>1.734641325389235</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AT18" t="n">
         <v>0.0517373220294939</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AU18" t="n">
         <v>0.8336367242314866</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AV18" t="n">
         <v>1.334823743225893</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AW18" t="n">
         <v>-0.02220688258902808</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AX18" t="n">
         <v>0.3328370547765458</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AY18" t="n">
         <v>2.303818735403536</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AZ18" t="n">
         <v>-1.117337915537621</v>
       </c>
     </row>
@@ -2552,105 +3392,150 @@
         <v>3.4</v>
       </c>
       <c r="D19" t="n">
+        <v>232.7529304923741</v>
+      </c>
+      <c r="E19" t="n">
         <v>8.522339137733407</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
+        <v>225.2309306219537</v>
+      </c>
+      <c r="G19" t="n">
         <v>18.42567470902247</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
+        <v>221.3658094067946</v>
+      </c>
+      <c r="I19" t="n">
         <v>3.528751887328241</v>
       </c>
-      <c r="G19" t="n">
+      <c r="J19" t="n">
+        <v>214.7580288118082</v>
+      </c>
+      <c r="K19" t="n">
         <v>7.695958563622009</v>
       </c>
-      <c r="H19" t="n">
+      <c r="L19" t="n">
+        <v>216.9466334243193</v>
+      </c>
+      <c r="M19" t="n">
         <v>13.58459824365927</v>
       </c>
-      <c r="I19" t="n">
+      <c r="N19" t="n">
+        <v>221.1818094287358</v>
+      </c>
+      <c r="O19" t="n">
         <v>17.96166954311074</v>
       </c>
-      <c r="J19" t="n">
+      <c r="P19" t="n">
+        <v>220.8118149405676</v>
+      </c>
+      <c r="Q19" t="n">
         <v>25.51867897628892</v>
       </c>
-      <c r="K19" t="n">
+      <c r="R19" t="n">
+        <v>178.2025899278357</v>
+      </c>
+      <c r="S19" t="n">
         <v>25.75242793306392</v>
       </c>
-      <c r="L19" t="n">
+      <c r="T19" t="n">
+        <v>174.7210090042006</v>
+      </c>
+      <c r="U19" t="n">
         <v>17.7866685475018</v>
       </c>
-      <c r="M19" t="n">
+      <c r="V19" t="n">
+        <v>181.1351770712129</v>
+      </c>
+      <c r="W19" t="n">
         <v>11.77263976834345</v>
       </c>
-      <c r="N19" t="n">
+      <c r="X19" t="n">
+        <v>170.2315064017654</v>
+      </c>
+      <c r="Y19" t="n">
         <v>9.529882119902485</v>
       </c>
-      <c r="O19" t="n">
+      <c r="Z19" t="n">
+        <v>176.3066271518139</v>
+      </c>
+      <c r="AA19" t="n">
         <v>2.125928621765571</v>
       </c>
-      <c r="P19" t="n">
+      <c r="AB19" t="n">
+        <v>161.7187385694355</v>
+      </c>
+      <c r="AC19" t="n">
         <v>16.484843856054</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="AD19" t="n">
+        <v>127.3751531425098</v>
+      </c>
+      <c r="AE19" t="n">
         <v>24.76965261689315</v>
       </c>
-      <c r="R19" t="n">
+      <c r="AF19" t="n">
+        <v>90.18644410667689</v>
+      </c>
+      <c r="AG19" t="n">
         <v>30.42684054543786</v>
       </c>
-      <c r="S19" t="n">
+      <c r="AH19" t="n">
         <v>63.93468940926399</v>
       </c>
-      <c r="T19" t="n">
+      <c r="AI19" t="n">
         <v>56.20400529161304</v>
       </c>
-      <c r="U19" t="n">
+      <c r="AJ19" t="n">
         <v>109.6965837036444</v>
       </c>
-      <c r="V19" t="n">
+      <c r="AK19" t="n">
         <v>0.6663260899536961</v>
       </c>
-      <c r="W19" t="n">
+      <c r="AL19" t="n">
         <v>-0.08902213252182492</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AM19" t="n">
         <v>1.407602830981531</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AN19" t="n">
         <v>0.07529027073095844</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AO19" t="n">
         <v>1.308551916839386</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AP19" t="n">
         <v>0.01914876572629178</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AQ19" t="n">
         <v>1.648586861630702</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AR19" t="n">
         <v>0.04128202478936392</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AS19" t="n">
         <v>1.711320978529911</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AT19" t="n">
         <v>-0.03132634129084315</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AU19" t="n">
         <v>2.978080851615521</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AV19" t="n">
         <v>1.444556168600501</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AW19" t="n">
         <v>0.1768013454382315</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AX19" t="n">
         <v>0.5520606870428133</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AY19" t="n">
         <v>1.460734645086973</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AZ19" t="n">
         <v>0.3981987439703195</v>
       </c>
     </row>
@@ -2665,105 +3550,150 @@
         <v>3.4</v>
       </c>
       <c r="D20" t="n">
+        <v>233.1176094636849</v>
+      </c>
+      <c r="E20" t="n">
         <v>8.512023763453708</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
+        <v>235.6813302678419</v>
+      </c>
+      <c r="G20" t="n">
         <v>18.50515027418204</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
+        <v>222.2678180451089</v>
+      </c>
+      <c r="I20" t="n">
         <v>3.238527013900431</v>
       </c>
-      <c r="G20" t="n">
+      <c r="J20" t="n">
+        <v>222.9381485917467</v>
+      </c>
+      <c r="K20" t="n">
         <v>6.437435285419435</v>
       </c>
-      <c r="H20" t="n">
+      <c r="L20" t="n">
+        <v>216.1948115521289</v>
+      </c>
+      <c r="M20" t="n">
         <v>13.88824246453901</v>
       </c>
-      <c r="I20" t="n">
+      <c r="N20" t="n">
+        <v>222.7957871461169</v>
+      </c>
+      <c r="O20" t="n">
         <v>18.1782066399324</v>
       </c>
-      <c r="J20" t="n">
+      <c r="P20" t="n">
+        <v>222.5122701720143</v>
+      </c>
+      <c r="Q20" t="n">
         <v>25.69661458333333</v>
       </c>
-      <c r="K20" t="n">
+      <c r="R20" t="n">
+        <v>179.8388073968549</v>
+      </c>
+      <c r="S20" t="n">
         <v>25.72013476216202</v>
       </c>
-      <c r="L20" t="n">
+      <c r="T20" t="n">
+        <v>176.4964849729065</v>
+      </c>
+      <c r="U20" t="n">
         <v>17.80543848132411</v>
       </c>
-      <c r="M20" t="n">
+      <c r="V20" t="n">
+        <v>182.4241636154499</v>
+      </c>
+      <c r="W20" t="n">
         <v>11.72668132376164</v>
       </c>
-      <c r="N20" t="n">
+      <c r="X20" t="n">
+        <v>171.6421340374237</v>
+      </c>
+      <c r="Y20" t="n">
         <v>9.905717457439884</v>
       </c>
-      <c r="O20" t="n">
+      <c r="Z20" t="n">
+        <v>176.8026290379517</v>
+      </c>
+      <c r="AA20" t="n">
         <v>2.17468559319246</v>
       </c>
-      <c r="P20" t="n">
+      <c r="AB20" t="n">
+        <v>163.5719780888118</v>
+      </c>
+      <c r="AC20" t="n">
         <v>16.47110553497964</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="AD20" t="n">
+        <v>129.059947128837</v>
+      </c>
+      <c r="AE20" t="n">
         <v>24.79425010951699</v>
       </c>
-      <c r="R20" t="n">
+      <c r="AF20" t="n">
+        <v>91.91262309855604</v>
+      </c>
+      <c r="AG20" t="n">
         <v>30.30972906883727</v>
       </c>
-      <c r="S20" t="n">
+      <c r="AH20" t="n">
         <v>68.22897503451219</v>
       </c>
-      <c r="T20" t="n">
+      <c r="AI20" t="n">
         <v>57.55853562137677</v>
       </c>
-      <c r="U20" t="n">
+      <c r="AJ20" t="n">
         <v>112.833497668496</v>
       </c>
-      <c r="V20" t="n">
+      <c r="AK20" t="n">
         <v>0.6383460633298188</v>
       </c>
-      <c r="W20" t="n">
+      <c r="AL20" t="n">
         <v>-0.03123413586447209</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AM20" t="n">
         <v>1.443085095561141</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AN20" t="n">
         <v>0.01578259975352372</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AO20" t="n">
         <v>1.370511968085106</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AP20" t="n">
         <v>0.07027407909961358</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AQ20" t="n">
         <v>1.784766548914267</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AR20" t="n">
         <v>-0.01687300120685063</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AS20" t="n">
         <v>1.697530881732915</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AT20" t="n">
         <v>-0.05147162904130922</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AU20" t="n">
         <v>3.684525886350166</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AV20" t="n">
         <v>0.5192495006629592</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AW20" t="n">
         <v>0.9874695456995763</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AX20" t="n">
         <v>-0.04704959947923797</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AY20" t="n">
         <v>3.030749217307906</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AZ20" t="n">
         <v>0.04378742848792595</v>
       </c>
     </row>
@@ -2778,105 +3708,150 @@
         <v>3.4</v>
       </c>
       <c r="D21" t="n">
+        <v>234.9376892874427</v>
+      </c>
+      <c r="E21" t="n">
         <v>8.23328356370858</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
+        <v>224.0535525734543</v>
+      </c>
+      <c r="G21" t="n">
         <v>18.39099397050573</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
+        <v>224.6588276802226</v>
+      </c>
+      <c r="I21" t="n">
         <v>3.687647014644976</v>
       </c>
-      <c r="G21" t="n">
+      <c r="J21" t="n">
+        <v>217.2188632052841</v>
+      </c>
+      <c r="K21" t="n">
         <v>7.660339030813661</v>
       </c>
-      <c r="H21" t="n">
+      <c r="L21" t="n">
+        <v>217.9840077322426</v>
+      </c>
+      <c r="M21" t="n">
         <v>13.9145979644559</v>
       </c>
-      <c r="I21" t="n">
+      <c r="N21" t="n">
+        <v>224.5588724547667</v>
+      </c>
+      <c r="O21" t="n">
         <v>18.35334777832031</v>
       </c>
-      <c r="J21" t="n">
+      <c r="P21" t="n">
+        <v>224.1438531537428</v>
+      </c>
+      <c r="Q21" t="n">
         <v>25.90088783426487</v>
       </c>
-      <c r="K21" t="n">
+      <c r="R21" t="n">
+        <v>181.5976516913015</v>
+      </c>
+      <c r="S21" t="n">
         <v>25.75775498194053</v>
       </c>
-      <c r="L21" t="n">
+      <c r="T21" t="n">
+        <v>178.2905421020292</v>
+      </c>
+      <c r="U21" t="n">
         <v>17.97076556699496</v>
       </c>
-      <c r="M21" t="n">
+      <c r="V21" t="n">
+        <v>183.8762010073831</v>
+      </c>
+      <c r="W21" t="n">
         <v>11.56410731322376</v>
       </c>
-      <c r="N21" t="n">
+      <c r="X21" t="n">
+        <v>173.1176765928878</v>
+      </c>
+      <c r="Y21" t="n">
         <v>10.46602235618213</v>
       </c>
-      <c r="O21" t="n">
+      <c r="Z21" t="n">
+        <v>177.5833192784736</v>
+      </c>
+      <c r="AA21" t="n">
         <v>2.069447023648744</v>
       </c>
-      <c r="P21" t="n">
+      <c r="AB21" t="n">
+        <v>165.4926792442376</v>
+      </c>
+      <c r="AC21" t="n">
         <v>16.51499484447723</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="AD21" t="n">
+        <v>130.9156255519137</v>
+      </c>
+      <c r="AE21" t="n">
         <v>24.55381731615</v>
       </c>
-      <c r="R21" t="n">
+      <c r="AF21" t="n">
+        <v>93.69069675181774</v>
+      </c>
+      <c r="AG21" t="n">
         <v>30.00368280613677</v>
       </c>
-      <c r="S21" t="n">
+      <c r="AH21" t="n">
         <v>71.30374118196431</v>
       </c>
-      <c r="T21" t="n">
+      <c r="AI21" t="n">
         <v>58.17894438301221</v>
       </c>
-      <c r="U21" t="n">
+      <c r="AJ21" t="n">
         <v>115.7580821382603</v>
       </c>
-      <c r="V21" t="n">
+      <c r="AK21" t="n">
         <v>0.6038578182247519</v>
       </c>
-      <c r="W21" t="n">
+      <c r="AL21" t="n">
         <v>-0.1288356003186381</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AM21" t="n">
         <v>1.439168030488579</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AN21" t="n">
         <v>-0.01245912930644029</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AO21" t="n">
         <v>1.449100075038613</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AP21" t="n">
         <v>-0.007182554150304499</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AQ21" t="n">
         <v>1.614840859217001</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AR21" t="n">
         <v>-0.08356818070648361</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AS21" t="n">
         <v>1.608377720447293</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AT21" t="n">
         <v>-0.04371272756698345</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AU21" t="n">
         <v>4.016579852941439</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AV21" t="n">
         <v>0.4147421621687794</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AW21" t="n">
         <v>0.082702146479755</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AX21" t="n">
         <v>-0.2738371734589783</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AY21" t="n">
         <v>1.548309502062825</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AZ21" t="n">
         <v>-0.6097874526259178</v>
       </c>
     </row>
@@ -2891,105 +3866,150 @@
         <v>3.4</v>
       </c>
       <c r="D22" t="n">
+        <v>236.4466838971943</v>
+      </c>
+      <c r="E22" t="n">
         <v>8.012466430664062</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
+        <v>234.1301825705995</v>
+      </c>
+      <c r="G22" t="n">
         <v>18.65672848748822</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
+        <v>225.7514378703233</v>
+      </c>
+      <c r="I22" t="n">
         <v>3.462105067909184</v>
       </c>
-      <c r="G22" t="n">
+      <c r="J22" t="n">
+        <v>222.7918492310436</v>
+      </c>
+      <c r="K22" t="n">
         <v>6.078863752649186</v>
       </c>
-      <c r="H22" t="n">
+      <c r="L22" t="n">
+        <v>219.7225554974366</v>
+      </c>
+      <c r="M22" t="n">
         <v>14.28931297139918</v>
       </c>
-      <c r="I22" t="n">
+      <c r="N22" t="n">
+        <v>223.7764568193585</v>
+      </c>
+      <c r="O22" t="n">
         <v>18.36614541128172</v>
       </c>
-      <c r="J22" t="n">
+      <c r="P22" t="n">
+        <v>225.6783305954004</v>
+      </c>
+      <c r="Q22" t="n">
         <v>26.04187471646789</v>
       </c>
-      <c r="K22" t="n">
+      <c r="R22" t="n">
+        <v>183.0555628377495</v>
+      </c>
+      <c r="S22" t="n">
         <v>25.81179652653687</v>
       </c>
-      <c r="L22" t="n">
+      <c r="T22" t="n">
+        <v>179.7261666913405</v>
+      </c>
+      <c r="U22" t="n">
         <v>17.93309150858128</v>
       </c>
-      <c r="M22" t="n">
+      <c r="V22" t="n">
+        <v>185.3223637655272</v>
+      </c>
+      <c r="W22" t="n">
         <v>11.572477191898</v>
       </c>
-      <c r="N22" t="n">
+      <c r="X22" t="n">
+        <v>174.5204700984008</v>
+      </c>
+      <c r="Y22" t="n">
         <v>10.74409079044424</v>
       </c>
-      <c r="O22" t="n">
+      <c r="Z22" t="n">
+        <v>178.0103446744013</v>
+      </c>
+      <c r="AA22" t="n">
         <v>2.032458258013352</v>
       </c>
-      <c r="P22" t="n">
+      <c r="AB22" t="n">
+        <v>167.2575335130624</v>
+      </c>
+      <c r="AC22" t="n">
         <v>16.64690247664215</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="AD22" t="n">
+        <v>132.7922215022094</v>
+      </c>
+      <c r="AE22" t="n">
         <v>24.30252981524096</v>
       </c>
-      <c r="R22" t="n">
+      <c r="AF22" t="n">
+        <v>95.32498111116125</v>
+      </c>
+      <c r="AG22" t="n">
         <v>29.73575348549701</v>
       </c>
-      <c r="S22" t="n">
+      <c r="AH22" t="n">
         <v>76.26213474039507</v>
       </c>
-      <c r="T22" t="n">
+      <c r="AI22" t="n">
         <v>57.72393991433627</v>
       </c>
-      <c r="U22" t="n">
+      <c r="AJ22" t="n">
         <v>115.9301166726217</v>
       </c>
-      <c r="V22" t="n">
+      <c r="AK22" t="n">
         <v>0.3806748626925426</v>
       </c>
-      <c r="W22" t="n">
+      <c r="AL22" t="n">
         <v>-0.1702083594410135</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AM22" t="n">
         <v>1.418166836948261</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AN22" t="n">
         <v>-0.05765575043698688</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AO22" t="n">
         <v>1.356146859784497</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AP22" t="n">
         <v>0.002923755781024973</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AQ22" t="n">
         <v>1.617630187501299</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AR22" t="n">
         <v>-0.01335458552583634</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AS22" t="n">
         <v>1.610105426598948</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AT22" t="n">
         <v>-0.0688551503715758</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AU22" t="n">
         <v>4.514010210687724</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AV22" t="n">
         <v>0.1012250558853063</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AW22" t="n">
         <v>0.4397951987816199</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AX22" t="n">
         <v>-0.572557607384392</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AY22" t="n">
         <v>1.811174312056071</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AZ22" t="n">
         <v>-0.2141283532523753</v>
       </c>
     </row>
@@ -3004,105 +4024,150 @@
         <v>3.4</v>
       </c>
       <c r="D23" t="n">
+        <v>232.9743353187615</v>
+      </c>
+      <c r="E23" t="n">
         <v>9.870864651727338</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
+        <v>240.1027574300343</v>
+      </c>
+      <c r="G23" t="n">
         <v>18.31748637747257</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
+        <v>226.5036093935053</v>
+      </c>
+      <c r="I23" t="n">
         <v>3.94134115665517</v>
       </c>
-      <c r="G23" t="n">
+      <c r="J23" t="n">
+        <v>223.9928221195302</v>
+      </c>
+      <c r="K23" t="n">
         <v>5.906211366044714</v>
       </c>
-      <c r="H23" t="n">
+      <c r="L23" t="n">
+        <v>223.058017223862</v>
+      </c>
+      <c r="M23" t="n">
         <v>14.84478429699621</v>
       </c>
-      <c r="I23" t="n">
+      <c r="N23" t="n">
+        <v>225.2535287708255</v>
+      </c>
+      <c r="O23" t="n">
         <v>18.38859531050878</v>
       </c>
-      <c r="J23" t="n">
+      <c r="P23" t="n">
+        <v>227.2357727523814</v>
+      </c>
+      <c r="Q23" t="n">
         <v>26.19279387994861</v>
       </c>
-      <c r="K23" t="n">
+      <c r="R23" t="n">
+        <v>184.8178625444994</v>
+      </c>
+      <c r="S23" t="n">
         <v>25.74615857279893</v>
       </c>
-      <c r="L23" t="n">
+      <c r="T23" t="n">
+        <v>181.5258024770318</v>
+      </c>
+      <c r="U23" t="n">
         <v>18.07622436090564</v>
       </c>
-      <c r="M23" t="n">
+      <c r="V23" t="n">
+        <v>186.5884947269521</v>
+      </c>
+      <c r="W23" t="n">
         <v>11.44895729443706</v>
       </c>
-      <c r="N23" t="n">
+      <c r="X23" t="n">
+        <v>175.9540102667843</v>
+      </c>
+      <c r="Y23" t="n">
         <v>11.09402703900709</v>
       </c>
-      <c r="O23" t="n">
+      <c r="Z23" t="n">
+        <v>178.3446690038587</v>
+      </c>
+      <c r="AA23" t="n">
         <v>2.166628736130733</v>
       </c>
-      <c r="P23" t="n">
+      <c r="AB23" t="n">
+        <v>168.885398080163</v>
+      </c>
+      <c r="AC23" t="n">
         <v>16.6509758157933</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="AD23" t="n">
+        <v>134.7685401321303</v>
+      </c>
+      <c r="AE23" t="n">
         <v>24.02279224801571</v>
       </c>
-      <c r="R23" t="n">
+      <c r="AF23" t="n">
+        <v>96.93412317451856</v>
+      </c>
+      <c r="AG23" t="n">
         <v>29.26003395242894</v>
       </c>
-      <c r="S23" t="n">
+      <c r="AH23" t="n">
         <v>80.33176160333977</v>
       </c>
-      <c r="T23" t="n">
+      <c r="AI23" t="n">
         <v>59.05853478057544</v>
       </c>
-      <c r="U23" t="n">
+      <c r="AJ23" t="n">
         <v>119.3804307623724</v>
       </c>
-      <c r="V23" t="n">
+      <c r="AK23" t="n">
         <v>0.2634410993427249</v>
       </c>
-      <c r="W23" t="n">
+      <c r="AL23" t="n">
         <v>-0.02893578076193584</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AM23" t="n">
         <v>1.323856529614605</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AN23" t="n">
         <v>-0.06474192260850505</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AO23" t="n">
         <v>1.454947586600663</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AP23" t="n">
         <v>0.1323641614711052</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AQ23" t="n">
         <v>1.588131688165328</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AR23" t="n">
         <v>-0.001304031263850847</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AS23" t="n">
         <v>1.470667419704141</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AT23" t="n">
         <v>-0.03077550982752614</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AU23" t="n">
         <v>4.219029964712053</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AV23" t="n">
         <v>-0.1134785160392157</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AW23" t="n">
         <v>-1.062413068289029</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AX23" t="n">
         <v>-0.9745808604558931</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AY23" t="n">
         <v>1.120052795558075</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AZ23" t="n">
         <v>-1.043794400854318</v>
       </c>
     </row>
@@ -3117,105 +4182,150 @@
         <v>3.4</v>
       </c>
       <c r="D24" t="n">
+        <v>223.3632891228859</v>
+      </c>
+      <c r="E24" t="n">
         <v>11.26394041886566</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
+        <v>230.338637270826</v>
+      </c>
+      <c r="G24" t="n">
         <v>17.93313317265071</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
+        <v>228.080501201305</v>
+      </c>
+      <c r="I24" t="n">
         <v>3.607176381645472</v>
       </c>
-      <c r="G24" t="n">
+      <c r="J24" t="n">
+        <v>225.4042718765584</v>
+      </c>
+      <c r="K24" t="n">
         <v>6.33302675071338</v>
       </c>
-      <c r="H24" t="n">
+      <c r="L24" t="n">
+        <v>224.1423559051456</v>
+      </c>
+      <c r="M24" t="n">
         <v>15.07357225350454</v>
       </c>
-      <c r="I24" t="n">
+      <c r="N24" t="n">
+        <v>229.360594647996</v>
+      </c>
+      <c r="O24" t="n">
         <v>18.78252286437556</v>
       </c>
-      <c r="J24" t="n">
+      <c r="P24" t="n">
+        <v>228.4430606948569</v>
+      </c>
+      <c r="Q24" t="n">
         <v>26.44588416349803</v>
       </c>
-      <c r="K24" t="n">
+      <c r="R24" t="n">
+        <v>185.9968976771578</v>
+      </c>
+      <c r="S24" t="n">
         <v>25.73661127834456</v>
       </c>
-      <c r="L24" t="n">
+      <c r="T24" t="n">
+        <v>182.9024300676711</v>
+      </c>
+      <c r="U24" t="n">
         <v>17.99510387664146</v>
       </c>
-      <c r="M24" t="n">
+      <c r="V24" t="n">
+        <v>188.2322589387285</v>
+      </c>
+      <c r="W24" t="n">
         <v>11.6125388179265</v>
       </c>
-      <c r="N24" t="n">
+      <c r="X24" t="n">
+        <v>177.16818315763</v>
+      </c>
+      <c r="Y24" t="n">
         <v>11.38472861432015</v>
       </c>
-      <c r="O24" t="n">
+      <c r="Z24" t="n">
+        <v>178.5372268730867</v>
+      </c>
+      <c r="AA24" t="n">
         <v>2.237179262418275</v>
       </c>
-      <c r="P24" t="n">
+      <c r="AB24" t="n">
+        <v>170.5357441327251</v>
+      </c>
+      <c r="AC24" t="n">
         <v>16.63633008375236</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="AD24" t="n">
+        <v>136.1321784756708</v>
+      </c>
+      <c r="AE24" t="n">
         <v>23.59677930250236</v>
       </c>
-      <c r="R24" t="n">
+      <c r="AF24" t="n">
+        <v>98.21321017353249</v>
+      </c>
+      <c r="AG24" t="n">
         <v>28.52401638707371</v>
       </c>
-      <c r="S24" t="n">
+      <c r="AH24" t="n">
         <v>84.70019466981918</v>
       </c>
-      <c r="T24" t="n">
+      <c r="AI24" t="n">
         <v>55.59911377775821</v>
       </c>
-      <c r="U24" t="n">
+      <c r="AJ24" t="n">
         <v>118.1702222637378</v>
       </c>
-      <c r="V24" t="n">
+      <c r="AK24" t="n">
         <v>0.322803301168671</v>
       </c>
-      <c r="W24" t="n">
+      <c r="AL24" t="n">
         <v>0.183829618683944</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AM24" t="n">
         <v>1.288682991731251</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AN24" t="n">
         <v>0.1982841762245113</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AO24" t="n">
         <v>1.620875182726707</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AP24" t="n">
         <v>0.2303060910380457</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AQ24" t="n">
         <v>1.615022124973598</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AR24" t="n">
         <v>0.1088034853022134</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AS24" t="n">
         <v>1.548554406943896</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AT24" t="n">
         <v>0.1806455216509239</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AU24" t="n">
         <v>4.287053178609294</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AV24" t="n">
         <v>-0.09843906911607543</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AW24" t="n">
         <v>-1.509366522130166</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AX24" t="n">
         <v>-0.6936507333061142</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AY24" t="n">
         <v>-0.2764144896525648</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AZ24" t="n">
         <v>-1.347052456050118</v>
       </c>
     </row>
@@ -3230,105 +4340,150 @@
         <v>3.4</v>
       </c>
       <c r="D25" t="n">
+        <v>234.1785577510266</v>
+      </c>
+      <c r="E25" t="n">
         <v>8.566814043843154</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
+        <v>222.0067971141626</v>
+      </c>
+      <c r="G25" t="n">
         <v>19.38250954269517</v>
       </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
+        <v>228.3694814452043</v>
+      </c>
+      <c r="I25" t="n">
         <v>3.234007544551333</v>
       </c>
-      <c r="G25" t="n">
+      <c r="J25" t="n">
+        <v>219.1247601881095</v>
+      </c>
+      <c r="K25" t="n">
         <v>7.992278565751742</v>
       </c>
-      <c r="H25" t="n">
+      <c r="L25" t="n">
+        <v>224.4281633990876</v>
+      </c>
+      <c r="M25" t="n">
         <v>14.75148924699066</v>
       </c>
-      <c r="I25" t="n">
+      <c r="N25" t="n">
+        <v>228.6970179808056</v>
+      </c>
+      <c r="O25" t="n">
         <v>18.57979632438497</v>
       </c>
-      <c r="J25" t="n">
+      <c r="P25" t="n">
+        <v>230.1539007621877</v>
+      </c>
+      <c r="Q25" t="n">
         <v>26.24621262787082</v>
       </c>
-      <c r="K25" t="n">
+      <c r="R25" t="n">
+        <v>187.9149713583872</v>
+      </c>
+      <c r="S25" t="n">
         <v>25.8950781314931</v>
       </c>
-      <c r="L25" t="n">
+      <c r="T25" t="n">
+        <v>184.755846726979</v>
+      </c>
+      <c r="U25" t="n">
         <v>18.44401447485524</v>
       </c>
-      <c r="M25" t="n">
+      <c r="V25" t="n">
+        <v>189.8302450924055</v>
+      </c>
+      <c r="W25" t="n">
         <v>11.93667526786209</v>
       </c>
-      <c r="N25" t="n">
+      <c r="X25" t="n">
+        <v>178.5313762502468</v>
+      </c>
+      <c r="Y25" t="n">
         <v>11.91156130310491</v>
       </c>
-      <c r="O25" t="n">
+      <c r="Z25" t="n">
+        <v>178.990275606196</v>
+      </c>
+      <c r="AA25" t="n">
         <v>2.643398798949328</v>
       </c>
-      <c r="P25" t="n">
+      <c r="AB25" t="n">
+        <v>172.1728207202668</v>
+      </c>
+      <c r="AC25" t="n">
         <v>16.85759442917844</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="AD25" t="n">
+        <v>137.8731754654688</v>
+      </c>
+      <c r="AE25" t="n">
         <v>23.36007300843584</v>
       </c>
-      <c r="R25" t="n">
+      <c r="AF25" t="n">
+        <v>99.72147062315163</v>
+      </c>
+      <c r="AG25" t="n">
         <v>27.99609664484118</v>
       </c>
-      <c r="S25" t="n">
+      <c r="AH25" t="n">
         <v>88.90586796055835</v>
       </c>
-      <c r="T25" t="n">
+      <c r="AI25" t="n">
         <v>56.03980173631511</v>
       </c>
-      <c r="U25" t="n">
+      <c r="AJ25" t="n">
         <v>118.8276017830673</v>
       </c>
-      <c r="V25" t="n">
+      <c r="AK25" t="n">
         <v>0.6311003367106129</v>
       </c>
-      <c r="W25" t="n">
+      <c r="AL25" t="n">
         <v>0.2431743195716369</v>
       </c>
-      <c r="X25" t="n">
+      <c r="AM25" t="n">
         <v>1.720424882063628</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AN25" t="n">
         <v>0.3944868398896363</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AO25" t="n">
         <v>1.915559768676755</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AP25" t="n">
         <v>0.3061291004749012</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AQ25" t="n">
         <v>1.805738658769755</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AR25" t="n">
         <v>0.07151926662904511</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AS25" t="n">
         <v>1.831958463005989</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AT25" t="n">
         <v>0.09864441891934259</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AU25" t="n">
         <v>4.022151826479902</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AV25" t="n">
         <v>-0.224211408194336</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AW25" t="n">
         <v>-2.449714534901257</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AX25" t="n">
         <v>-1.91537525311462</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AY25" t="n">
         <v>-1.57405211654216</v>
       </c>
-      <c r="AK25" t="n">
+      <c r="AZ25" t="n">
         <v>-1.764534631380613</v>
       </c>
     </row>
@@ -3343,105 +4498,150 @@
         <v>3.4</v>
       </c>
       <c r="D26" t="n">
+        <v>232.2195200717195</v>
+      </c>
+      <c r="E26" t="n">
         <v>11.01340354757106</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
+        <v>232.0458442606825</v>
+      </c>
+      <c r="G26" t="n">
         <v>14.90850462135693</v>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
+        <v>229.3434681452758</v>
+      </c>
+      <c r="I26" t="n">
         <v>3.277243215141561</v>
       </c>
-      <c r="G26" t="n">
+      <c r="J26" t="n">
+        <v>216.6676969054743</v>
+      </c>
+      <c r="K26" t="n">
         <v>8.52153074656818</v>
       </c>
-      <c r="H26" t="n">
+      <c r="L26" t="n">
+        <v>226.0532132488616</v>
+      </c>
+      <c r="M26" t="n">
         <v>14.8124962664665</v>
       </c>
-      <c r="I26" t="n">
+      <c r="N26" t="n">
+        <v>230.3114605626316</v>
+      </c>
+      <c r="O26" t="n">
         <v>18.55375114062154</v>
       </c>
-      <c r="J26" t="n">
+      <c r="P26" t="n">
+        <v>223.1860486159088</v>
+      </c>
+      <c r="Q26" t="n">
         <v>25.66428326545878</v>
       </c>
-      <c r="K26" t="n">
+      <c r="R26" t="n">
+        <v>189.6608146031698</v>
+      </c>
+      <c r="S26" t="n">
         <v>25.83217187976161</v>
       </c>
-      <c r="L26" t="n">
+      <c r="T26" t="n">
+        <v>186.5139073852106</v>
+      </c>
+      <c r="U26" t="n">
         <v>18.65684752768658</v>
       </c>
-      <c r="M26" t="n">
+      <c r="V26" t="n">
+        <v>192.063378476082</v>
+      </c>
+      <c r="W26" t="n">
         <v>12.35090566865095</v>
       </c>
-      <c r="N26" t="n">
+      <c r="X26" t="n">
+        <v>180.6090329217573</v>
+      </c>
+      <c r="Y26" t="n">
         <v>12.57618572695035</v>
       </c>
-      <c r="O26" t="n">
+      <c r="Z26" t="n">
+        <v>179.7994275465079</v>
+      </c>
+      <c r="AA26" t="n">
         <v>2.968877697667327</v>
       </c>
-      <c r="P26" t="n">
+      <c r="AB26" t="n">
+        <v>173.7446504958132</v>
+      </c>
+      <c r="AC26" t="n">
         <v>16.82173005232574</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="AD26" t="n">
+        <v>139.4865107705407</v>
+      </c>
+      <c r="AE26" t="n">
         <v>22.95043377166099</v>
       </c>
-      <c r="R26" t="n">
+      <c r="AF26" t="n">
+        <v>101.1053441264105</v>
+      </c>
+      <c r="AG26" t="n">
         <v>27.22857725535724</v>
       </c>
-      <c r="S26" t="n">
+      <c r="AH26" t="n">
         <v>92.74449832277898</v>
       </c>
-      <c r="T26" t="n">
+      <c r="AI26" t="n">
         <v>50.6996847079557</v>
       </c>
-      <c r="U26" t="n">
+      <c r="AJ26" t="n">
         <v>115.0221180306535</v>
       </c>
-      <c r="V26" t="n">
+      <c r="AK26" t="n">
         <v>0.8091519403119449</v>
       </c>
-      <c r="W26" t="n">
+      <c r="AL26" t="n">
         <v>0.1780516036013321</v>
       </c>
-      <c r="X26" t="n">
+      <c r="AM26" t="n">
         <v>2.077656671510524</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AN26" t="n">
         <v>0.357231789446896</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AO26" t="n">
         <v>2.23313338367651</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AP26" t="n">
         <v>0.3175736149997553</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AQ26" t="n">
         <v>1.758060658231688</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AR26" t="n">
         <v>-0.04767800053806693</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AS26" t="n">
         <v>1.745843244782581</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AT26" t="n">
         <v>-0.08611521822340817</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AU26" t="n">
         <v>3.838630362220622</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AV26" t="n">
         <v>-0.1835214642592806</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AW26" t="n">
         <v>-5.340117028359407</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AX26" t="n">
         <v>-2.890402493458149</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AY26" t="n">
         <v>-3.80548375241379</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AZ26" t="n">
         <v>-2.23143163587163</v>
       </c>
     </row>
